--- a/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
+++ b/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Dynamics" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Thermodynamics" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Radiative Processes" sheetId="6" r:id="rId6"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Dynamics" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Thermodynamics" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="580">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -51,19 +52,28 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Dynamics</t>
-  </si>
-  <si>
-    <t>4. Thermodynamics</t>
-  </si>
-  <si>
-    <t>5. Radiative Processes</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Dynamics</t>
+  </si>
+  <si>
+    <t>5. Thermodynamics</t>
+  </si>
+  <si>
+    <t>6. Radiative Processes</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -78,31 +88,58 @@
     <t>1.0.2</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Sea Ice key properties</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of seaice model code</t>
   </si>
   <si>
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -117,7 +154,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -132,7 +169,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Variables</t>
@@ -141,7 +178,7 @@
     <t>List of prognostic variable in the sea ice model.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Overview of list of prognostic variable in the sea ice model. in seaice model.</t>
@@ -150,7 +187,7 @@
     <t>cmip6.seaice.key_properties.variables.overview</t>
   </si>
   <si>
-    <t>1.2.2 *</t>
+    <t>2.2.2 *</t>
   </si>
   <si>
     <t>Prognostic</t>
@@ -165,9 +202,6 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
@@ -204,7 +238,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Seawater Properties</t>
@@ -213,7 +247,7 @@
     <t>Properties of seawater relevant to sea ice</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of properties of seawater relevant to sea ice in seaice model.</t>
@@ -222,7 +256,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Ocean Freezing Point</t>
@@ -240,7 +274,7 @@
     <t>Constant</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Ocean Freezing Point Value</t>
@@ -255,7 +289,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point_value</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -264,7 +298,7 @@
     <t>Resolution of the sea ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Overview of resolution of the sea ice grid in seaice model.</t>
@@ -273,7 +307,7 @@
     <t>cmip6.seaice.key_properties.resolution.overview</t>
   </si>
   <si>
-    <t>1.4.2 *</t>
+    <t>2.4.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid e.g. N512L180, T512L70, ORCA025 etc.</t>
@@ -282,7 +316,7 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
-    <t>1.4.3 *</t>
+    <t>2.4.3 *</t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -294,7 +328,7 @@
     <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t>1.4.4 *</t>
+    <t>2.4.4 *</t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -309,7 +343,7 @@
     <t>cmip6.seaice.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -318,7 +352,7 @@
     <t>Tuning applied to sea ice model component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of tuning applied to sea ice model component in seaice model.</t>
@@ -327,7 +361,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -339,7 +373,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t>1.5.3 *</t>
+    <t>2.5.3 *</t>
   </si>
   <si>
     <t>Target</t>
@@ -351,7 +385,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.target</t>
   </si>
   <si>
-    <t>1.5.4 *</t>
+    <t>2.5.4 *</t>
   </si>
   <si>
     <t>Simulations</t>
@@ -363,7 +397,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
   </si>
   <si>
-    <t>1.5.5 *</t>
+    <t>2.5.5 *</t>
   </si>
   <si>
     <t>Metrics Used</t>
@@ -375,7 +409,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.6 </t>
+    <t xml:space="preserve">2.5.6 </t>
   </si>
   <si>
     <t>Variables</t>
@@ -387,7 +421,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Key Parameter Values</t>
@@ -396,7 +430,7 @@
     <t>Values of key parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of values of key parameters in seaice model.</t>
@@ -405,7 +439,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.2 </t>
+    <t xml:space="preserve">2.6.2 </t>
   </si>
   <si>
     <t>Ice Strength</t>
@@ -417,7 +451,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Snow Conductivity</t>
@@ -429,7 +463,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Ice Thickness In Leads</t>
@@ -441,7 +475,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Additional Parameters</t>
@@ -453,7 +487,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>2.7</t>
   </si>
   <si>
     <t>Key Properties --&gt; Assumptions</t>
@@ -462,7 +496,7 @@
     <t>Assumptions made in the sea ice model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7.1 </t>
+    <t xml:space="preserve">2.7.1 </t>
   </si>
   <si>
     <t>Overview of assumptions made in the sea ice model in seaice model.</t>
@@ -471,7 +505,7 @@
     <t>cmip6.seaice.key_properties.assumptions.overview</t>
   </si>
   <si>
-    <t>1.7.2 *</t>
+    <t>2.7.2 *</t>
   </si>
   <si>
     <t>General overview description of any *key* assumptions made in this model.</t>
@@ -480,7 +514,7 @@
     <t>cmip6.seaice.key_properties.assumptions.description</t>
   </si>
   <si>
-    <t>1.7.3 *</t>
+    <t>2.7.3 *</t>
   </si>
   <si>
     <t>On Diagnostic Variables</t>
@@ -492,7 +526,7 @@
     <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
   </si>
   <si>
-    <t>1.7.4 *</t>
+    <t>2.7.4 *</t>
   </si>
   <si>
     <t>Missing Processes</t>
@@ -504,7 +538,7 @@
     <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation</t>
@@ -513,7 +547,7 @@
     <t>Conservation in the sea ice component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.1 </t>
+    <t xml:space="preserve">2.8.1 </t>
   </si>
   <si>
     <t>Overview of conservation in the sea ice component in seaice model.</t>
@@ -522,7 +556,7 @@
     <t>cmip6.seaice.key_properties.conservation.overview</t>
   </si>
   <si>
-    <t>1.8.2 *</t>
+    <t>2.8.2 *</t>
   </si>
   <si>
     <t>Provide a general description of conservation methodology.</t>
@@ -531,7 +565,7 @@
     <t>cmip6.seaice.key_properties.conservation.description</t>
   </si>
   <si>
-    <t>1.8.3 *</t>
+    <t>2.8.3 *</t>
   </si>
   <si>
     <t>Properties</t>
@@ -552,7 +586,7 @@
     <t>Salt</t>
   </si>
   <si>
-    <t>1.8.4 *</t>
+    <t>2.8.4 *</t>
   </si>
   <si>
     <t>Budget</t>
@@ -564,7 +598,7 @@
     <t>cmip6.seaice.key_properties.conservation.budget</t>
   </si>
   <si>
-    <t>1.8.5 *</t>
+    <t>2.8.5 *</t>
   </si>
   <si>
     <t>Was Flux Correction Used</t>
@@ -579,7 +613,7 @@
     <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
   </si>
   <si>
-    <t>1.8.6 *</t>
+    <t>2.8.6 *</t>
   </si>
   <si>
     <t>Corrected Conserved Prognostic Variables</t>
@@ -591,7 +625,7 @@
     <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -600,7 +634,7 @@
     <t>Sea Ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in seaice model.</t>
@@ -609,7 +643,7 @@
     <t>cmip6.seaice.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in seaice model.</t>
@@ -618,7 +652,7 @@
     <t>cmip6.seaice.grid.overview</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation</t>
@@ -627,7 +661,7 @@
     <t>Sea ice discretisation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of sea ice discretisation in seaice model.</t>
@@ -636,7 +670,7 @@
     <t>cmip6.seaice.grid.discretisation.overview</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>3.3</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
@@ -645,7 +679,7 @@
     <t>Sea ice discretisation in the horizontal</t>
   </si>
   <si>
-    <t>2.3.1 *</t>
+    <t>3.3.1 *</t>
   </si>
   <si>
     <t>Grid on which sea ice is horizontal discretised?</t>
@@ -663,7 +697,7 @@
     <t>Own Grid</t>
   </si>
   <si>
-    <t>2.3.2 *</t>
+    <t>3.3.2 *</t>
   </si>
   <si>
     <t>Grid Type</t>
@@ -684,7 +718,7 @@
     <t>Adaptive grid</t>
   </si>
   <si>
-    <t>2.3.3 *</t>
+    <t>3.3.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -705,7 +739,7 @@
     <t>Finite volumes</t>
   </si>
   <si>
-    <t>2.3.4 *</t>
+    <t>3.3.4 *</t>
   </si>
   <si>
     <t>Thermodynamics Time Step</t>
@@ -717,7 +751,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
   </si>
   <si>
-    <t>2.3.5 *</t>
+    <t>3.3.5 *</t>
   </si>
   <si>
     <t>Dynamics Time Step</t>
@@ -729,7 +763,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.6 </t>
+    <t xml:space="preserve">3.3.6 </t>
   </si>
   <si>
     <t>Additional Details</t>
@@ -741,7 +775,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>3.4</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation --&gt; Vertical</t>
@@ -750,7 +784,7 @@
     <t>Sea ice vertical properties</t>
   </si>
   <si>
-    <t>2.4.1 *</t>
+    <t>3.4.1 *</t>
   </si>
   <si>
     <t>Layering</t>
@@ -771,7 +805,7 @@
     <t>Multi-layers</t>
   </si>
   <si>
-    <t>2.4.2 *</t>
+    <t>3.4.2 *</t>
   </si>
   <si>
     <t>Number Of Layers</t>
@@ -783,7 +817,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">3.4.3 </t>
   </si>
   <si>
     <t>Specify any additional vertical grid details.</t>
@@ -792,7 +826,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>3.5</t>
   </si>
   <si>
     <t>Grid --&gt; Seaice Categories</t>
@@ -801,7 +835,7 @@
     <t>What method is used to represent sea ice categories ?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
+    <t xml:space="preserve">3.5.1 </t>
   </si>
   <si>
     <t>Overview of what method is used to represent sea ice categories ? in seaice model.</t>
@@ -810,7 +844,7 @@
     <t>cmip6.seaice.grid.seaice_categories.overview</t>
   </si>
   <si>
-    <t>2.5.2 *</t>
+    <t>3.5.2 *</t>
   </si>
   <si>
     <t>Has Mulitple Categories</t>
@@ -822,7 +856,7 @@
     <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
   </si>
   <si>
-    <t>2.5.3 *</t>
+    <t>3.5.3 *</t>
   </si>
   <si>
     <t>Number Of Categories</t>
@@ -834,7 +868,7 @@
     <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
   </si>
   <si>
-    <t>2.5.4 *</t>
+    <t>3.5.4 *</t>
   </si>
   <si>
     <t>Category Limits</t>
@@ -846,7 +880,7 @@
     <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
   </si>
   <si>
-    <t>2.5.5 *</t>
+    <t>3.5.5 *</t>
   </si>
   <si>
     <t>Ice Thickness Distribution Scheme</t>
@@ -858,7 +892,7 @@
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution_scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.6 </t>
+    <t xml:space="preserve">3.5.6 </t>
   </si>
   <si>
     <t>Other</t>
@@ -870,7 +904,7 @@
     <t>cmip6.seaice.grid.seaice_categories.other</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>Grid --&gt; Snow On Seaice</t>
@@ -879,7 +913,7 @@
     <t>Snow on sea ice details</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.1 </t>
+    <t xml:space="preserve">3.6.1 </t>
   </si>
   <si>
     <t>Overview of snow on sea ice details in seaice model.</t>
@@ -888,7 +922,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.overview</t>
   </si>
   <si>
-    <t>2.6.2 *</t>
+    <t>3.6.2 *</t>
   </si>
   <si>
     <t>Has Snow On Ice</t>
@@ -900,7 +934,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
   </si>
   <si>
-    <t>2.6.3 *</t>
+    <t>3.6.3 *</t>
   </si>
   <si>
     <t>Number Of Snow Levels</t>
@@ -912,7 +946,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
   </si>
   <si>
-    <t>2.6.4 *</t>
+    <t>3.6.4 *</t>
   </si>
   <si>
     <t>Snow Fraction</t>
@@ -924,7 +958,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.5 </t>
+    <t xml:space="preserve">3.6.5 </t>
   </si>
   <si>
     <t>Specify any additional details related to snow on ice.</t>
@@ -933,7 +967,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Dynamics</t>
@@ -942,7 +976,7 @@
     <t>Sea Ice Dynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the dynamics in seaice model.</t>
@@ -951,7 +985,7 @@
     <t>cmip6.seaice.dynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice dynamics in seaice model.</t>
@@ -960,7 +994,7 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Horizontal Transport</t>
@@ -981,7 +1015,7 @@
     <t>Eulerian</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>4.1.4 *</t>
   </si>
   <si>
     <t>Transport In Thickness Space</t>
@@ -993,7 +1027,7 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
-    <t>3.1.5 *</t>
+    <t>4.1.5 *</t>
   </si>
   <si>
     <t>Ice Strength Formulation</t>
@@ -1011,7 +1045,7 @@
     <t>Rothrock 1975</t>
   </si>
   <si>
-    <t>3.1.6 *</t>
+    <t>4.1.6 *</t>
   </si>
   <si>
     <t>Redistribution</t>
@@ -1029,7 +1063,7 @@
     <t>Ridging</t>
   </si>
   <si>
-    <t>3.1.7 *</t>
+    <t>4.1.7 *</t>
   </si>
   <si>
     <t>Rheology</t>
@@ -1059,7 +1093,7 @@
     <t>Granular</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Thermodynamics</t>
@@ -1068,7 +1102,7 @@
     <t>Sea Ice Thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the thermodynamics in seaice model.</t>
@@ -1077,7 +1111,7 @@
     <t>cmip6.seaice.thermodynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice thermodynamics in seaice model.</t>
@@ -1086,7 +1120,7 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Energy</t>
@@ -1095,7 +1129,7 @@
     <t>Processes related to energy in sea ice thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of processes related to energy in sea ice thermodynamics in seaice model.</t>
@@ -1104,7 +1138,7 @@
     <t>cmip6.seaice.thermodynamics.energy.overview</t>
   </si>
   <si>
-    <t>4.2.2 *</t>
+    <t>5.2.2 *</t>
   </si>
   <si>
     <t>Enthalpy Formulation</t>
@@ -1128,7 +1162,7 @@
     <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
   </si>
   <si>
-    <t>4.2.3 *</t>
+    <t>5.2.3 *</t>
   </si>
   <si>
     <t>Thermal Conductivity</t>
@@ -1146,7 +1180,7 @@
     <t>Saline ice</t>
   </si>
   <si>
-    <t>4.2.4 *</t>
+    <t>5.2.4 *</t>
   </si>
   <si>
     <t>Heat Diffusion</t>
@@ -1167,7 +1201,7 @@
     <t>Conduction, radiation and latent heat transport</t>
   </si>
   <si>
-    <t>4.2.5 *</t>
+    <t>5.2.5 *</t>
   </si>
   <si>
     <t>Basal Heat Flux</t>
@@ -1188,7 +1222,7 @@
     <t>Thermal Varying Salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.6 </t>
+    <t xml:space="preserve">5.2.6 </t>
   </si>
   <si>
     <t>Fixed Salinity Value</t>
@@ -1200,7 +1234,7 @@
     <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
   </si>
   <si>
-    <t>4.2.7 *</t>
+    <t>5.2.7 *</t>
   </si>
   <si>
     <t>Heat Content Of Precipitation</t>
@@ -1212,7 +1246,7 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.8 </t>
+    <t xml:space="preserve">5.2.8 </t>
   </si>
   <si>
     <t>Precipitation Effects On Salinity</t>
@@ -1224,7 +1258,7 @@
     <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Mass</t>
@@ -1233,7 +1267,7 @@
     <t>Processes related to mass in sea ice thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Overview of processes related to mass in sea ice thermodynamics in seaice model.</t>
@@ -1242,7 +1276,7 @@
     <t>cmip6.seaice.thermodynamics.mass.overview</t>
   </si>
   <si>
-    <t>4.3.2 *</t>
+    <t>5.3.2 *</t>
   </si>
   <si>
     <t>New Ice Formation</t>
@@ -1254,7 +1288,7 @@
     <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
   </si>
   <si>
-    <t>4.3.3 *</t>
+    <t>5.3.3 *</t>
   </si>
   <si>
     <t>Ice Vertical Growth And Melt</t>
@@ -1266,7 +1300,7 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
   </si>
   <si>
-    <t>4.3.4 *</t>
+    <t>5.3.4 *</t>
   </si>
   <si>
     <t>Ice Lateral Melting</t>
@@ -1284,7 +1318,7 @@
     <t>Virtual thin ice melting (for single-category)</t>
   </si>
   <si>
-    <t>4.3.5 *</t>
+    <t>5.3.5 *</t>
   </si>
   <si>
     <t>Ice Surface Sublimation</t>
@@ -1296,7 +1330,7 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
   </si>
   <si>
-    <t>4.3.6 *</t>
+    <t>5.3.6 *</t>
   </si>
   <si>
     <t>Frazil Ice</t>
@@ -1308,7 +1342,7 @@
     <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt</t>
@@ -1317,7 +1351,7 @@
     <t>Processes related to salt in sea ice thermodynamics.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>Overview of processes related to salt in sea ice thermodynamics. in seaice model.</t>
@@ -1326,7 +1360,7 @@
     <t>cmip6.seaice.thermodynamics.salt.overview</t>
   </si>
   <si>
-    <t>4.4.2 *</t>
+    <t>5.4.2 *</t>
   </si>
   <si>
     <t>Has Multiple Sea Ice Salinities</t>
@@ -1338,7 +1372,7 @@
     <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
   </si>
   <si>
-    <t>4.4.3 *</t>
+    <t>5.4.3 *</t>
   </si>
   <si>
     <t>Sea Ice Salinity Thermal Impacts</t>
@@ -1350,7 +1384,7 @@
     <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t>5.5</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
@@ -1359,7 +1393,7 @@
     <t>Mass transport of salt</t>
   </si>
   <si>
-    <t>4.5.1 *</t>
+    <t>5.5.1 *</t>
   </si>
   <si>
     <t>Salinity Type</t>
@@ -1377,7 +1411,7 @@
     <t>Prognostic salinity profile</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.2 </t>
+    <t xml:space="preserve">5.5.2 </t>
   </si>
   <si>
     <t>Constant Salinity Value</t>
@@ -1389,7 +1423,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.3 </t>
+    <t xml:space="preserve">5.5.3 </t>
   </si>
   <si>
     <t>Describe the salinity profile used.</t>
@@ -1398,7 +1432,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
   </si>
   <si>
-    <t>4.6</t>
+    <t>5.6</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
@@ -1407,7 +1441,7 @@
     <t>Salt thermodynamics</t>
   </si>
   <si>
-    <t>4.6.1 *</t>
+    <t>5.6.1 *</t>
   </si>
   <si>
     <t>How is salinity determined in the thermodynamic calculation?</t>
@@ -1416,19 +1450,19 @@
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.2 </t>
+    <t xml:space="preserve">5.6.2 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.3 </t>
+    <t xml:space="preserve">5.6.3 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
   </si>
   <si>
-    <t>4.7</t>
+    <t>5.7</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
@@ -1437,7 +1471,7 @@
     <t>Ice thickness distribution details.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7.1 </t>
+    <t xml:space="preserve">5.7.1 </t>
   </si>
   <si>
     <t>Overview of ice thickness distribution details. in seaice model.</t>
@@ -1446,7 +1480,7 @@
     <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.overview</t>
   </si>
   <si>
-    <t>4.7.2 *</t>
+    <t>5.7.2 *</t>
   </si>
   <si>
     <t>Representation</t>
@@ -1464,7 +1498,7 @@
     <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
   </si>
   <si>
-    <t>4.8</t>
+    <t>5.8</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
@@ -1473,7 +1507,7 @@
     <t>Ice floe-size distribution details.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.1 </t>
+    <t xml:space="preserve">5.8.1 </t>
   </si>
   <si>
     <t>Overview of ice floe-size distribution details. in seaice model.</t>
@@ -1482,7 +1516,7 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.overview</t>
   </si>
   <si>
-    <t>4.8.2 *</t>
+    <t>5.8.2 *</t>
   </si>
   <si>
     <t>How is the sea ice floe-size represented?</t>
@@ -1494,7 +1528,7 @@
     <t>Parameterised</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.3 </t>
+    <t xml:space="preserve">5.8.3 </t>
   </si>
   <si>
     <t>Please provide further details on any parameterisation of floe-size.</t>
@@ -1503,7 +1537,7 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
   </si>
   <si>
-    <t>4.9</t>
+    <t>5.9</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Melt Ponds</t>
@@ -1512,7 +1546,7 @@
     <t>Characteristics of melt ponds.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9.1 </t>
+    <t xml:space="preserve">5.9.1 </t>
   </si>
   <si>
     <t>Overview of characteristics of melt ponds. in seaice model.</t>
@@ -1521,7 +1555,7 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.overview</t>
   </si>
   <si>
-    <t>4.9.2 *</t>
+    <t>5.9.2 *</t>
   </si>
   <si>
     <t>Are Included</t>
@@ -1533,7 +1567,7 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
   </si>
   <si>
-    <t>4.9.3 *</t>
+    <t>5.9.3 *</t>
   </si>
   <si>
     <t>Formulation</t>
@@ -1551,7 +1585,7 @@
     <t>Level-ice melt ponds</t>
   </si>
   <si>
-    <t>4.9.4 *</t>
+    <t>5.9.4 *</t>
   </si>
   <si>
     <t>Impacts</t>
@@ -1572,7 +1606,7 @@
     <t>Heat</t>
   </si>
   <si>
-    <t>4.10</t>
+    <t>5.10</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Snow Processes</t>
@@ -1581,7 +1615,7 @@
     <t>Thermodynamic processes in snow on sea ice</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.1 </t>
+    <t xml:space="preserve">5.10.1 </t>
   </si>
   <si>
     <t>Overview of thermodynamic processes in snow on sea ice in seaice model.</t>
@@ -1590,7 +1624,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.overview</t>
   </si>
   <si>
-    <t>4.10.2 *</t>
+    <t>5.10.2 *</t>
   </si>
   <si>
     <t>Has Snow Aging</t>
@@ -1602,7 +1636,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.3 </t>
+    <t xml:space="preserve">5.10.3 </t>
   </si>
   <si>
     <t>Snow Aging Scheme</t>
@@ -1614,7 +1648,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
   </si>
   <si>
-    <t>4.10.4 *</t>
+    <t>5.10.4 *</t>
   </si>
   <si>
     <t>Has Snow Ice Formation</t>
@@ -1626,7 +1660,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.5 </t>
+    <t xml:space="preserve">5.10.5 </t>
   </si>
   <si>
     <t>Snow Ice Formation Scheme</t>
@@ -1638,7 +1672,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
-    <t>4.10.6 *</t>
+    <t>5.10.6 *</t>
   </si>
   <si>
     <t>What is the impact of ridging on snow cover?</t>
@@ -1647,7 +1681,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
-    <t>4.10.7 *</t>
+    <t>5.10.7 *</t>
   </si>
   <si>
     <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
@@ -1662,7 +1696,7 @@
     <t>Multi-layered heat diffusion</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Radiative Processes</t>
@@ -1671,7 +1705,7 @@
     <t>Sea Ice Radiative Processes</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the radiative processes in seaice model.</t>
@@ -1680,7 +1714,7 @@
     <t>cmip6.seaice.radiative_processes.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice radiative processes in seaice model.</t>
@@ -1689,7 +1723,7 @@
     <t>cmip6.seaice.radiative_processes.overview</t>
   </si>
   <si>
-    <t>5.1.3 *</t>
+    <t>6.1.3 *</t>
   </si>
   <si>
     <t>Surface Albedo</t>
@@ -1710,7 +1744,7 @@
     <t>Multi-band albedo</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>6.1.4 *</t>
   </si>
   <si>
     <t>Ice Radiation Transmission</t>
@@ -1732,7 +1766,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1774,9 +1808,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1801,14 +1834,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1858,7 +1899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1875,10 +1916,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1890,11 +1928,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2190,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD16"/>
+  <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2266,31 +2310,119 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD177"/>
   <sheetViews>
@@ -2305,962 +2437,962 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>21</v>
+      <c r="B2" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>26</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>31</v>
+      <c r="B10" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>36</v>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
+      <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>39</v>
+      <c r="B20" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>42</v>
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>44</v>
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>47</v>
+      <c r="A27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>48</v>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11"/>
       <c r="AA29" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AG29" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AH29" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>62</v>
+      <c r="A32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="7" t="s">
-        <v>63</v>
+      <c r="B33" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>33</v>
+      <c r="A35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>66</v>
+      <c r="A36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>68</v>
+      <c r="A39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>70</v>
+      <c r="A40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="11"/>
       <c r="AA41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AB41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>74</v>
+      <c r="A43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>77</v>
+      <c r="A44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>79</v>
+      <c r="A48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="7" t="s">
-        <v>80</v>
+      <c r="B49" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>33</v>
+      <c r="A51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>83</v>
+      <c r="A52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>23</v>
+      <c r="A55" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>86</v>
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>88</v>
+      <c r="A59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>90</v>
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>92</v>
+      <c r="A63" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>95</v>
+      <c r="A64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="11"/>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>97</v>
+      <c r="A68" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="7" t="s">
-        <v>98</v>
+      <c r="B69" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>33</v>
+      <c r="A71" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>101</v>
+      <c r="A72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>103</v>
+      <c r="A75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>105</v>
+      <c r="A76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="12" t="s">
-        <v>36</v>
+      <c r="B77" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="178" customHeight="1">
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>107</v>
+      <c r="A80" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>109</v>
+      <c r="A81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>111</v>
+      <c r="A84" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>113</v>
+      <c r="A85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>31</v>
+      <c r="B86" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>115</v>
+      <c r="A89" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>117</v>
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="12" t="s">
-        <v>31</v>
+      <c r="B91" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>119</v>
+      <c r="A94" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>121</v>
+      <c r="A95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>31</v>
+      <c r="B96" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>123</v>
+      <c r="A100" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>124</v>
+      <c r="B101" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>33</v>
+      <c r="A103" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>127</v>
+      <c r="A104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>129</v>
+      <c r="A107" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>131</v>
+      <c r="A108" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>133</v>
+      <c r="A111" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>135</v>
+      <c r="A112" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>137</v>
+      <c r="A115" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>139</v>
+      <c r="A116" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>141</v>
+      <c r="A119" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>143</v>
+      <c r="A120" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="12" t="s">
-        <v>31</v>
+      <c r="B121" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>145</v>
+      <c r="A125" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="7" t="s">
-        <v>146</v>
+      <c r="B126" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>33</v>
+      <c r="A128" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>149</v>
+      <c r="A129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>103</v>
+      <c r="A132" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>152</v>
+      <c r="A133" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="12" t="s">
-        <v>36</v>
+      <c r="B134" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="178" customHeight="1">
       <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>154</v>
+      <c r="A137" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>156</v>
+      <c r="A138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="12" t="s">
-        <v>31</v>
+      <c r="B139" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>158</v>
+      <c r="A142" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>160</v>
+      <c r="A143" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="B144" s="12" t="s">
-        <v>31</v>
+      <c r="B144" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="B145" s="11"/>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>162</v>
+      <c r="A148" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="7" t="s">
-        <v>163</v>
+      <c r="B149" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>33</v>
+      <c r="A151" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>166</v>
+      <c r="A152" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="B153" s="11"/>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>103</v>
+      <c r="A155" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>169</v>
+      <c r="A156" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="12" t="s">
-        <v>36</v>
+      <c r="B157" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="178" customHeight="1">
       <c r="B158" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>171</v>
+      <c r="A160" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:30" ht="24" customHeight="1">
-      <c r="A161" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>173</v>
+      <c r="A161" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:30" ht="24" customHeight="1">
-      <c r="B162" s="12" t="s">
-        <v>48</v>
+      <c r="B162" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:30" ht="24" customHeight="1">
       <c r="B163" s="11"/>
       <c r="AA163" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AB163" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AC163" s="5" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AD163" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:30" ht="24" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>178</v>
+      <c r="A165" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:30" ht="24" customHeight="1">
-      <c r="A166" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>180</v>
+      <c r="A166" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:30" ht="24" customHeight="1">
-      <c r="B167" s="12" t="s">
-        <v>31</v>
+      <c r="B167" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:30" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:30" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>182</v>
+      <c r="A170" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:30" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>185</v>
+      <c r="A171" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:30" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
     <row r="174" spans="1:30" ht="24" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>187</v>
+      <c r="A174" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:30" ht="24" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>189</v>
+      <c r="A175" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:30" ht="24" customHeight="1">
-      <c r="B176" s="12" t="s">
-        <v>31</v>
+      <c r="B176" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="24" customHeight="1">
@@ -3304,7 +3436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD123"/>
   <sheetViews>
@@ -3319,677 +3451,677 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>191</v>
+      <c r="A1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>192</v>
+      <c r="B2" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>195</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>198</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>200</v>
+      <c r="A14" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>201</v>
+      <c r="B15" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
+      <c r="A17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>204</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>206</v>
+      <c r="A22" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="7" t="s">
-        <v>207</v>
+      <c r="B23" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>191</v>
+      <c r="A25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>210</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="5" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>215</v>
+      <c r="A29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>217</v>
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="5" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>222</v>
+      <c r="A33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>224</v>
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>229</v>
+      <c r="A37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>231</v>
+      <c r="A38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>233</v>
+      <c r="A41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>235</v>
+      <c r="A42" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>237</v>
+      <c r="A45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>239</v>
+      <c r="A46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="B47" s="12" t="s">
-        <v>36</v>
+      <c r="B47" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="178" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>241</v>
+      <c r="A51" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="B52" s="7" t="s">
-        <v>242</v>
+      <c r="B52" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>244</v>
+      <c r="A54" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>246</v>
+      <c r="A55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="12" t="s">
-        <v>48</v>
+      <c r="B56" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="11"/>
       <c r="AA57" s="5" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="AD57" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>251</v>
+      <c r="A59" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>253</v>
+      <c r="A60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>237</v>
+      <c r="A63" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>256</v>
+      <c r="A64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="B65" s="12" t="s">
-        <v>36</v>
+      <c r="B65" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="178" customHeight="1">
       <c r="B66" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>258</v>
+      <c r="A69" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="7" t="s">
-        <v>259</v>
+      <c r="B70" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>33</v>
+      <c r="A72" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>262</v>
+      <c r="A73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>264</v>
+      <c r="A76" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>266</v>
+      <c r="A77" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>268</v>
+      <c r="A80" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>270</v>
+      <c r="A81" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>272</v>
+      <c r="A84" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>274</v>
+      <c r="A85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>31</v>
+      <c r="B86" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>276</v>
+      <c r="A89" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>278</v>
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="12" t="s">
-        <v>36</v>
+      <c r="B91" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="178" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>280</v>
+      <c r="A94" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>282</v>
+      <c r="A95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>36</v>
+      <c r="B96" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="178" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>284</v>
+      <c r="A100" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>285</v>
+      <c r="B101" s="13" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>33</v>
+      <c r="A103" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>288</v>
+      <c r="A104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>290</v>
+      <c r="A107" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>292</v>
+      <c r="A108" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>294</v>
+      <c r="A111" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>296</v>
+      <c r="A112" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>298</v>
+      <c r="A115" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>300</v>
+      <c r="A116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="12" t="s">
-        <v>36</v>
+      <c r="B117" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="178" customHeight="1">
       <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>237</v>
+      <c r="A120" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>303</v>
+      <c r="A121" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="12" t="s">
-        <v>36</v>
+      <c r="B122" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="178" customHeight="1">
@@ -4035,7 +4167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
@@ -4050,243 +4182,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>305</v>
+      <c r="A1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>306</v>
+      <c r="B2" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>309</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>312</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>314</v>
+      <c r="A13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>316</v>
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>321</v>
+      <c r="A17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>323</v>
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="5" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>325</v>
+      <c r="A21" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>327</v>
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="5" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>331</v>
+      <c r="A25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>333</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
-      <c r="B27" s="12" t="s">
-        <v>48</v>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="5" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>337</v>
+      <c r="A30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>339</v>
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="5" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AF32" s="5" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="AG32" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4311,7 +4443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD215"/>
   <sheetViews>
@@ -4326,1229 +4458,1229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>347</v>
+      <c r="A1" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>348</v>
+      <c r="B2" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>351</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>354</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>356</v>
+      <c r="A14" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>357</v>
+      <c r="B15" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
+      <c r="A17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>360</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>362</v>
+      <c r="A21" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>364</v>
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>370</v>
+      <c r="A25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>372</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="5" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>376</v>
+      <c r="A29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>378</v>
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="5" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>383</v>
+      <c r="A33" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>385</v>
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="5" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>390</v>
+      <c r="A37" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>392</v>
+      <c r="A38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>394</v>
+      <c r="A41" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>396</v>
+      <c r="A42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="B43" s="12" t="s">
-        <v>36</v>
+      <c r="B43" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="178" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>398</v>
+      <c r="A46" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>400</v>
+      <c r="A47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
-      <c r="B48" s="12" t="s">
-        <v>36</v>
+      <c r="B48" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="178" customHeight="1">
       <c r="B49" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>402</v>
+      <c r="A52" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="7" t="s">
-        <v>403</v>
+      <c r="B53" s="13" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>33</v>
+      <c r="A55" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>406</v>
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>408</v>
+      <c r="A59" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>410</v>
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>36</v>
+      <c r="B61" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="178" customHeight="1">
       <c r="B62" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>412</v>
+      <c r="A64" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>414</v>
+      <c r="A65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="B66" s="12" t="s">
-        <v>36</v>
+      <c r="B66" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="178" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>416</v>
+      <c r="A69" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>418</v>
+      <c r="A70" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
       <c r="AA71" s="5" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>422</v>
+      <c r="A73" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>424</v>
+      <c r="A74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="B75" s="12" t="s">
-        <v>36</v>
+      <c r="B75" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="178" customHeight="1">
       <c r="B76" s="11"/>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>426</v>
+      <c r="A78" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>428</v>
+      <c r="A79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="B80" s="12" t="s">
-        <v>36</v>
+      <c r="B80" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="178" customHeight="1">
       <c r="B81" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>430</v>
+      <c r="A84" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="7" t="s">
-        <v>431</v>
+      <c r="B85" s="13" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>33</v>
+      <c r="A87" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>434</v>
+      <c r="A88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>436</v>
+      <c r="A91" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>438</v>
+      <c r="A92" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>440</v>
+      <c r="A95" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>442</v>
+      <c r="A96" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>444</v>
+      <c r="A100" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>445</v>
+      <c r="B101" s="13" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>447</v>
+      <c r="A103" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>449</v>
+      <c r="A104" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="B105" s="11"/>
       <c r="AA105" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AB105" s="5" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AD105" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>453</v>
+      <c r="A107" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>455</v>
+      <c r="A108" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:30" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>237</v>
+      <c r="A111" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>458</v>
+      <c r="A112" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="24" customHeight="1">
-      <c r="B113" s="12" t="s">
-        <v>36</v>
+      <c r="B113" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:30" ht="178" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="117" spans="1:30" ht="24" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>460</v>
+      <c r="A117" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:30" ht="24" customHeight="1">
-      <c r="B118" s="7" t="s">
-        <v>461</v>
+      <c r="B118" s="13" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:30" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>447</v>
+      <c r="A120" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:30" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>464</v>
+      <c r="A121" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:30" ht="24" customHeight="1">
       <c r="B122" s="11"/>
       <c r="AA122" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AB122" s="5" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AD122" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:30" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" ht="24" customHeight="1">
+      <c r="A125" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>466</v>
+      <c r="C125" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:30" ht="24" customHeight="1">
       <c r="B126" s="11"/>
     </row>
     <row r="128" spans="1:30" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>237</v>
+      <c r="A128" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="A129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>468</v>
       </c>
+      <c r="C129" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
-      <c r="B130" s="12" t="s">
-        <v>36</v>
+      <c r="B130" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="178" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>470</v>
+      <c r="A134" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="7" t="s">
-        <v>471</v>
+      <c r="B135" s="13" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>33</v>
+      <c r="A137" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>474</v>
+      <c r="A138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="11"/>
     </row>
     <row r="141" spans="1:29" ht="24" customHeight="1">
-      <c r="A141" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>476</v>
+      <c r="A141" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:29" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>478</v>
+      <c r="A142" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="B143" s="11"/>
       <c r="AA143" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AB143" s="5" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="AC143" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:29" ht="24" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>482</v>
+      <c r="A146" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:29" ht="24" customHeight="1">
-      <c r="B147" s="7" t="s">
-        <v>483</v>
+      <c r="B147" s="13" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="149" spans="1:29" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>33</v>
+      <c r="A149" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:29" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>486</v>
+      <c r="A150" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="151" spans="1:29" ht="24" customHeight="1">
       <c r="B151" s="11"/>
     </row>
     <row r="153" spans="1:29" ht="24" customHeight="1">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>476</v>
-      </c>
     </row>
     <row r="154" spans="1:29" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>489</v>
+      <c r="A154" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:29" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AB155" s="5" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="AC155" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:29" ht="24" customHeight="1">
-      <c r="A157" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>237</v>
+      <c r="A157" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:29" ht="24" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>493</v>
+      <c r="A158" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:29" ht="24" customHeight="1">
-      <c r="B159" s="12" t="s">
-        <v>36</v>
+      <c r="B159" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:29" ht="178" customHeight="1">
       <c r="B160" s="11"/>
     </row>
     <row r="163" spans="1:29" ht="24" customHeight="1">
-      <c r="A163" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>495</v>
+      <c r="A163" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
-      <c r="B164" s="7" t="s">
-        <v>496</v>
+      <c r="B164" s="13" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
-      <c r="A166" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>33</v>
+      <c r="A166" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>499</v>
+      <c r="A167" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="168" spans="1:29" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>501</v>
+      <c r="A170" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>503</v>
+      <c r="A171" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>505</v>
+      <c r="A174" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>507</v>
+      <c r="A175" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11"/>
       <c r="AA176" s="5" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="AB176" s="5" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="AC176" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:30" ht="24" customHeight="1">
-      <c r="A178" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>511</v>
+      <c r="A178" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:30" ht="24" customHeight="1">
-      <c r="A179" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>513</v>
+      <c r="A179" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:30" ht="24" customHeight="1">
-      <c r="B180" s="12" t="s">
-        <v>48</v>
+      <c r="B180" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:30" ht="24" customHeight="1">
       <c r="B181" s="11"/>
       <c r="AA181" s="5" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AB181" s="5" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="AC181" s="5" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="AD181" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:30" ht="24" customHeight="1">
-      <c r="A184" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>518</v>
+      <c r="A184" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:30" ht="24" customHeight="1">
-      <c r="B185" s="7" t="s">
-        <v>519</v>
+      <c r="B185" s="13" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:30" ht="24" customHeight="1">
-      <c r="A187" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>33</v>
+      <c r="A187" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:30" ht="24" customHeight="1">
-      <c r="A188" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>522</v>
+      <c r="A188" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:30" ht="24" customHeight="1">
       <c r="B189" s="11"/>
     </row>
     <row r="191" spans="1:30" ht="24" customHeight="1">
-      <c r="A191" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>524</v>
+      <c r="A191" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="192" spans="1:30" ht="24" customHeight="1">
-      <c r="A192" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>526</v>
+      <c r="A192" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="B193" s="11"/>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
-      <c r="A195" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>528</v>
+      <c r="A195" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>530</v>
+      <c r="A196" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="B197" s="12" t="s">
-        <v>36</v>
+      <c r="B197" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="178" customHeight="1">
       <c r="B198" s="11"/>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
-      <c r="A200" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>532</v>
+      <c r="A200" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
-      <c r="A201" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>534</v>
+      <c r="A201" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="B202" s="11"/>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>536</v>
+      <c r="A204" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
-      <c r="A205" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>538</v>
+      <c r="A205" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
-      <c r="B206" s="12" t="s">
-        <v>36</v>
+      <c r="B206" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="178" customHeight="1">
       <c r="B207" s="11"/>
     </row>
     <row r="209" spans="1:29" ht="24" customHeight="1">
-      <c r="A209" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>331</v>
+      <c r="A209" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:29" ht="24" customHeight="1">
-      <c r="A210" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>541</v>
+      <c r="A210" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="211" spans="1:29" ht="24" customHeight="1">
       <c r="B211" s="11"/>
     </row>
     <row r="213" spans="1:29" ht="24" customHeight="1">
-      <c r="A213" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>376</v>
+      <c r="A213" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:29" ht="24" customHeight="1">
-      <c r="A214" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>544</v>
+      <c r="A214" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="1:29" ht="24" customHeight="1">
       <c r="B215" s="11"/>
       <c r="AA215" s="5" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="AB215" s="5" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="AC215" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5621,7 +5753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -5636,138 +5768,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>548</v>
+      <c r="A1" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>549</v>
+      <c r="B2" s="13" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>552</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>555</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>557</v>
+      <c r="A13" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>559</v>
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>564</v>
+      <c r="A17" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>566</v>
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>48</v>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="5" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
+++ b/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>IITM-ESM</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>

--- a/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
+++ b/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="532">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -235,10 +235,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature</t>
-  </si>
-  <si>
-    <t>Snow depth</t>
+    <t>Snow temperature: Snow on ice temperature</t>
+  </si>
+  <si>
+    <t>Snow depth: Snow on ice thickness</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -265,10 +265,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10</t>
-  </si>
-  <si>
-    <t>Constant</t>
+    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
+  </si>
+  <si>
+    <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -633,13 +633,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Own Grid</t>
+    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
+  </si>
+  <si>
+    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -660,7 +660,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid</t>
+    <t>Adaptive grid: Computational grid changes during the run</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -741,13 +741,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer</t>
-  </si>
-  <si>
-    <t>Two-layers</t>
-  </si>
-  <si>
-    <t>Multi-layers</t>
+    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
+  </si>
+  <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -936,7 +936,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping</t>
+    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
   </si>
   <si>
     <t>Prather</t>
@@ -1011,10 +1011,10 @@
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic</t>
+    <t>Visco-plastic: VP</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic: EVP</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1134,13 +1134,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity</t>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1311,6 +1311,9 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Constant</t>
+  </si>
+  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1608,10 +1611,10 @@
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized</t>
-  </si>
-  <si>
-    <t>Multi-band albedo</t>
+    <t>Parameterized: Sea ice albedo is parameterized.</t>
+  </si>
+  <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1629,7 +1632,7 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category</t>
+    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
 </sst>
 </file>
@@ -4679,13 +4682,13 @@
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
         <v>73</v>
@@ -4693,10 +4696,10 @@
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
@@ -4704,10 +4707,10 @@
         <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4715,7 +4718,7 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>226</v>
@@ -4726,10 +4729,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
@@ -4742,20 +4745,20 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>421</v>
@@ -4766,22 +4769,22 @@
         <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
         <v>73</v>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
@@ -4800,10 +4803,10 @@
         <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4811,7 +4814,7 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>226</v>
@@ -4822,10 +4825,10 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
@@ -4838,23 +4841,23 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
@@ -4862,19 +4865,19 @@
         <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
         <v>73</v>
@@ -4882,23 +4885,23 @@
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
@@ -4906,19 +4909,19 @@
         <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
         <v>73</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>226</v>
@@ -4937,10 +4940,10 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
@@ -4953,23 +4956,23 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
@@ -4977,10 +4980,10 @@
         <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -4988,10 +4991,10 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
@@ -4999,19 +5002,19 @@
         <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AC152" s="6" t="s">
         <v>73</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
@@ -5030,10 +5033,10 @@
         <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5044,13 +5047,13 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AD157" s="6" t="s">
         <v>73</v>
@@ -5058,23 +5061,23 @@
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -5082,10 +5085,10 @@
         <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5093,10 +5096,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5104,10 +5107,10 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5120,10 +5123,10 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -5131,10 +5134,10 @@
         <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5142,10 +5145,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5153,10 +5156,10 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
@@ -5169,7 +5172,7 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>314</v>
@@ -5180,10 +5183,10 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
@@ -5191,7 +5194,7 @@
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>356</v>
@@ -5202,19 +5205,19 @@
         <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC187" s="6" t="s">
         <v>73</v>
@@ -5306,20 +5309,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5330,10 +5333,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5341,7 +5344,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -5352,10 +5355,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5368,10 +5371,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5379,22 +5382,22 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>73</v>
@@ -5402,10 +5405,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5413,10 +5416,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5427,13 +5430,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>73</v>

--- a/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
+++ b/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="531">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -235,10 +235,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature: Snow on ice temperature</t>
-  </si>
-  <si>
-    <t>Snow depth: Snow on ice thickness</t>
+    <t>Snow temperature</t>
+  </si>
+  <si>
+    <t>Snow depth</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -265,10 +265,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
-  </si>
-  <si>
-    <t>Constant: Constant value of seawater freezing point is used.</t>
+    <t>TEOS-10</t>
+  </si>
+  <si>
+    <t>Constant</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -633,13 +633,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
-  </si>
-  <si>
-    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
+    <t>Ocean grid</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid</t>
+  </si>
+  <si>
+    <t>Own Grid</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -660,7 +660,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid: Computational grid changes during the run</t>
+    <t>Adaptive grid</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -741,13 +741,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
-  </si>
-  <si>
-    <t>Multi-layers: Simulation uses more than two layers.</t>
+    <t>Zero-layer</t>
+  </si>
+  <si>
+    <t>Two-layers</t>
+  </si>
+  <si>
+    <t>Multi-layers</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -936,7 +936,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
+    <t>Incremental Re-mapping</t>
   </si>
   <si>
     <t>Prather</t>
@@ -1011,10 +1011,10 @@
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic: VP</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic: EVP</t>
+    <t>Visco-plastic</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1134,13 +1134,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
+    <t>Heat Reservoir</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1311,9 +1311,6 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1611,10 +1608,10 @@
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized: Sea ice albedo is parameterized.</t>
-  </si>
-  <si>
-    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
+    <t>Parameterized</t>
+  </si>
+  <si>
+    <t>Multi-band albedo</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1632,7 +1629,7 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
+    <t>Ice radiation transmission per category</t>
   </si>
 </sst>
 </file>
@@ -4682,13 +4679,13 @@
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB93" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="AB93" s="6" t="s">
+      <c r="AC93" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="AC93" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
         <v>73</v>
@@ -4696,10 +4693,10 @@
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
@@ -4707,10 +4704,10 @@
         <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4718,7 +4715,7 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>226</v>
@@ -4729,10 +4726,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
@@ -4745,20 +4742,20 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>421</v>
@@ -4769,22 +4766,22 @@
         <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB110" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="AB110" s="6" t="s">
+      <c r="AC110" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="AC110" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
         <v>73</v>
@@ -4792,10 +4789,10 @@
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
@@ -4803,10 +4800,10 @@
         <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4814,7 +4811,7 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>226</v>
@@ -4825,10 +4822,10 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
@@ -4841,23 +4838,23 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>447</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
@@ -4865,19 +4862,19 @@
         <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB127" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AB127" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
         <v>73</v>
@@ -4885,23 +4882,23 @@
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>453</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
@@ -4909,19 +4906,19 @@
         <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AC135" s="6" t="s">
         <v>73</v>
@@ -4929,7 +4926,7 @@
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>226</v>
@@ -4940,10 +4937,10 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
@@ -4956,23 +4953,23 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>463</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
@@ -4980,10 +4977,10 @@
         <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -4991,10 +4988,10 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
@@ -5002,19 +4999,19 @@
         <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>472</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB152" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="AB152" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="AC152" s="6" t="s">
         <v>73</v>
@@ -5022,10 +5019,10 @@
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>476</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
@@ -5033,10 +5030,10 @@
         <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5047,13 +5044,13 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB157" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="AB157" s="6" t="s">
+      <c r="AC157" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="AC157" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="AD157" s="6" t="s">
         <v>73</v>
@@ -5061,23 +5058,23 @@
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B160" s="12" t="s">
         <v>483</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -5085,10 +5082,10 @@
         <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>488</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5096,10 +5093,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5107,10 +5104,10 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5123,10 +5120,10 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -5134,10 +5131,10 @@
         <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>496</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5145,10 +5142,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B176" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5156,10 +5153,10 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C177" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
@@ -5172,7 +5169,7 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>314</v>
@@ -5183,10 +5180,10 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C182" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
@@ -5194,7 +5191,7 @@
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>356</v>
@@ -5205,19 +5202,19 @@
         <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>506</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB187" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="AB187" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="AC187" s="6" t="s">
         <v>73</v>
@@ -5309,20 +5306,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5333,10 +5330,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5344,7 +5341,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -5355,10 +5352,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>517</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5371,10 +5368,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5382,22 +5379,22 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>521</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB15" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AB15" s="6" t="s">
+      <c r="AC15" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>73</v>
@@ -5405,10 +5402,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5416,10 +5413,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5430,13 +5427,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AB20" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>73</v>

--- a/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
+++ b/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_seaice.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="3. Dynamics" sheetId="5" r:id="rId5"/>
-    <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
-    <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
+    <sheet name="Frontis" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="1. Key Properties" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2. Grid" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="3. Dynamics" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="4. Thermodynamics" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="5. Radiative Processes" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="538">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -154,6 +155,9 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
+    <t>Sea Ice Simulator (SIS)</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -208,15 +212,15 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
+    <t>Sea ice thickness</t>
+  </si>
+  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
     <t>Sea ice concentration</t>
   </si>
   <si>
-    <t>Sea ice thickness</t>
-  </si>
-  <si>
     <t>Sea ice volume per grid cell area</t>
   </si>
   <si>
@@ -265,13 +269,16 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
+    <t>Tfreeze=-0.054*salinity</t>
+  </si>
+  <si>
     <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
   </si>
   <si>
     <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1.2 </t>
+    <t>1.3.1.2 </t>
   </si>
   <si>
     <t>Ocean Freezing Point Value</t>
@@ -302,6 +309,9 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.resolution.name</t>
+  </si>
+  <si>
+    <t>Z*-coordinate</t>
   </si>
   <si>
     <t>1.4.1.2 *</t>
@@ -375,7 +385,7 @@
     <t>Simulations</t>
   </si>
   <si>
-    <t xml:space="preserve">Which simulations had tuning applied, e.g. all, not historical, only pi-control? </t>
+    <t>Which simulations had tuning applied, e.g. all, not historical, only pi-control? </t>
   </si>
   <si>
     <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
@@ -393,7 +403,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1.5 </t>
+    <t>1.5.1.5 </t>
   </si>
   <si>
     <t>Variables</t>
@@ -414,7 +424,7 @@
     <t>Values of key parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1.1 </t>
+    <t>1.6.1.1 </t>
   </si>
   <si>
     <t>Ice Strength</t>
@@ -426,7 +436,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1.2 </t>
+    <t>1.6.1.2 </t>
   </si>
   <si>
     <t>Snow Conductivity</t>
@@ -438,7 +448,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1.3 </t>
+    <t>1.6.1.3 </t>
   </si>
   <si>
     <t>Ice Thickness In Leads</t>
@@ -450,7 +460,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1.4 </t>
+    <t>1.6.1.4 </t>
   </si>
   <si>
     <t>Additional Parameters</t>
@@ -575,7 +585,7 @@
     <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.1.5 </t>
+    <t>1.8.1.5 </t>
   </si>
   <si>
     <t>Corrected Conserved Prognostic Variables</t>
@@ -597,7 +607,7 @@
     <t>Sea Ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1.1 </t>
+    <t>2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in seaice model.</t>
@@ -606,7 +616,7 @@
     <t>cmip6.seaice.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1.2 </t>
+    <t>2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in seaice model.</t>
@@ -654,6 +664,9 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
   </si>
   <si>
+    <t>Tripolar grid</t>
+  </si>
+  <si>
     <t>Structured grid</t>
   </si>
   <si>
@@ -708,7 +721,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2.6 </t>
+    <t>2.1.2.6 </t>
   </si>
   <si>
     <t>Additional Details</t>
@@ -762,7 +775,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.3.3 </t>
+    <t>2.1.3.3 </t>
   </si>
   <si>
     <t>Specify any additional vertical grid details.</t>
@@ -828,7 +841,10 @@
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1.5 </t>
+    <t>Multi-levels; Winton 2000 Scheme</t>
+  </si>
+  <si>
+    <t>2.2.1.5 </t>
   </si>
   <si>
     <t>Other</t>
@@ -888,7 +904,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1.4 </t>
+    <t>2.3.1.4 </t>
   </si>
   <si>
     <t>Specify any additional details related to snow on ice.</t>
@@ -906,7 +922,7 @@
     <t>Sea Ice Dynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1.1 </t>
+    <t>3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the dynamics in seaice model.</t>
@@ -915,7 +931,7 @@
     <t>cmip6.seaice.dynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1.2 </t>
+    <t>3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice dynamics in seaice model.</t>
@@ -987,6 +1003,9 @@
     <t>cmip6.seaice.dynamics.redistribution</t>
   </si>
   <si>
+    <t>Ice Strength Formulation: GFDL SIS</t>
+  </si>
+  <si>
     <t>Rafting</t>
   </si>
   <si>
@@ -1005,6 +1024,9 @@
     <t>cmip6.seaice.dynamics.rheology</t>
   </si>
   <si>
+    <t>Elastic-visco-plastic: EVP</t>
+  </si>
+  <si>
     <t>Free-drift</t>
   </si>
   <si>
@@ -1014,9 +1036,6 @@
     <t>Visco-plastic: VP</t>
   </si>
   <si>
-    <t>Elastic-visco-plastic: EVP</t>
-  </si>
-  <si>
     <t>Elastic-anisotropic-plastic</t>
   </si>
   <si>
@@ -1032,7 +1051,7 @@
     <t>Sea Ice Thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1.1 </t>
+    <t>4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the thermodynamics in seaice model.</t>
@@ -1041,7 +1060,7 @@
     <t>cmip6.seaice.thermodynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1.2 </t>
+    <t>4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice thermodynamics in seaice model.</t>
@@ -1143,7 +1162,7 @@
     <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1.5 </t>
+    <t>4.2.1.5 </t>
   </si>
   <si>
     <t>Fixed Salinity Value</t>
@@ -1168,7 +1187,7 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1.7 </t>
+    <t>4.2.1.7 </t>
   </si>
   <si>
     <t>Precipitation Effects On Salinity</t>
@@ -1320,7 +1339,7 @@
     <t>Prognostic salinity profile</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2.2 </t>
+    <t>4.4.2.2 </t>
   </si>
   <si>
     <t>Constant Salinity Value</t>
@@ -1332,7 +1351,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2.3 </t>
+    <t>4.4.2.3 </t>
   </si>
   <si>
     <t>Describe the salinity profile used.</t>
@@ -1359,13 +1378,13 @@
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.3.2 </t>
+    <t>4.4.3.2 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.3.3 </t>
+    <t>4.4.3.3 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
@@ -1419,7 +1438,7 @@
     <t>Parameterised</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.1.2 </t>
+    <t>4.6.1.2 </t>
   </si>
   <si>
     <t>Provide further details on any parameterisation of floe-size.</t>
@@ -1509,7 +1528,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.1.2 </t>
+    <t>4.8.1.2 </t>
   </si>
   <si>
     <t>Snow Aging Scheme</t>
@@ -1533,7 +1552,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.1.4 </t>
+    <t>4.8.1.4 </t>
   </si>
   <si>
     <t>Snow Ice Formation Scheme</t>
@@ -1578,7 +1597,7 @@
     <t>Sea Ice Radiative Processes</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1.1 </t>
+    <t>5.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the radiative processes in seaice model.</t>
@@ -1587,7 +1606,7 @@
     <t>cmip6.seaice.radiative_processes.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1.2 </t>
+    <t>5.1.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice radiative processes in seaice model.</t>
@@ -1639,106 +1658,163 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="26"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="24"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1751,30 +1827,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF337AB7"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF003366"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF333399"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1782,364 +1858,217 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF337AB7"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="180.709183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2147,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,7 +2084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2100,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2179,27 +2112,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2223,7 +2164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2231,13 +2172,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2245,54 +2190,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://es-doc.org/how-to-use-model-document-spreadsheets"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://es-doc.org/cmip6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="6" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2300,27 +2256,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2328,63 +2284,126 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B9" type="list">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17" type="list">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://es-doc.org/how-to-use-model-responsible-party-spreadsheets."/>
+    <hyperlink ref="A13" r:id="rId2" display="https://es-doc.org/how-to-use-model-citation-spreadsheets."/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD149"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B136" activeCellId="0" sqref="B136"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="150.714285714286"/>
+    <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="6" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -2394,3063 +2413,5318 @@
       <c r="C5" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+      <c r="AF13" s="0"/>
+      <c r="AG13" s="0"/>
+      <c r="AH13" s="0"/>
+      <c r="AI13" s="0"/>
+      <c r="AJ13" s="0"/>
+      <c r="AK13" s="0"/>
+      <c r="AL13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AF14" s="0"/>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="0"/>
+      <c r="AK14" s="0"/>
+      <c r="AL14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
+      <c r="AD15" s="0"/>
+      <c r="AE15" s="0"/>
+      <c r="AF15" s="0"/>
+      <c r="AG15" s="0"/>
+      <c r="AH15" s="0"/>
+      <c r="AI15" s="0"/>
+      <c r="AJ15" s="0"/>
+      <c r="AK15" s="0"/>
+      <c r="AL15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="11"/>
-    </row>
-    <row r="19" spans="1:38" ht="24" customHeight="1">
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+      <c r="AE16" s="0"/>
+      <c r="AF16" s="0"/>
+      <c r="AG16" s="0"/>
+      <c r="AH16" s="0"/>
+      <c r="AI16" s="0"/>
+      <c r="AJ16" s="0"/>
+      <c r="AK16" s="0"/>
+      <c r="AL16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="0"/>
+      <c r="AG17" s="0"/>
+      <c r="AH17" s="0"/>
+      <c r="AI17" s="0"/>
+      <c r="AJ17" s="0"/>
+      <c r="AK17" s="0"/>
+      <c r="AL17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+      <c r="AE18" s="0"/>
+      <c r="AF18" s="0"/>
+      <c r="AG18" s="0"/>
+      <c r="AH18" s="0"/>
+      <c r="AI18" s="0"/>
+      <c r="AJ18" s="0"/>
+      <c r="AK18" s="0"/>
+      <c r="AL18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="24" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="0"/>
+      <c r="AC19" s="0"/>
+      <c r="AD19" s="0"/>
+      <c r="AE19" s="0"/>
+      <c r="AF19" s="0"/>
+      <c r="AG19" s="0"/>
+      <c r="AH19" s="0"/>
+      <c r="AI19" s="0"/>
+      <c r="AJ19" s="0"/>
+      <c r="AK19" s="0"/>
+      <c r="AL19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" ht="24" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+      <c r="AE20" s="0"/>
+      <c r="AF20" s="0"/>
+      <c r="AG20" s="0"/>
+      <c r="AH20" s="0"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="0"/>
+      <c r="AK20" s="0"/>
+      <c r="AL20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AD21" s="0"/>
+      <c r="AE21" s="0"/>
+      <c r="AF21" s="0"/>
+      <c r="AG21" s="0"/>
+      <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
+      <c r="AK21" s="0"/>
+      <c r="AL21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" ht="24" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" s="0"/>
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+      <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
+      <c r="AL22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" ht="24" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="AA23" s="0"/>
+      <c r="AB23" s="0"/>
+      <c r="AC23" s="0"/>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
+      <c r="AF23" s="0"/>
+      <c r="AG23" s="0"/>
+      <c r="AH23" s="0"/>
+      <c r="AI23" s="0"/>
+      <c r="AJ23" s="0"/>
+      <c r="AK23" s="0"/>
+      <c r="AL23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AB26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AC26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AE26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AG26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AH26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AI26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AK25" s="6" t="s">
+      <c r="AJ26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AL25" s="6" t="s">
+      <c r="AK26" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="AL26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="12" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL27" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
+      <c r="C33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AB33" s="6" t="s">
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AC33" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="AA34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="AB34" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
+      <c r="AC34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="AA36" s="0"/>
+      <c r="AB36" s="0"/>
+      <c r="AC36" s="0"/>
+      <c r="AD36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="13" t="s">
+      <c r="AA37" s="0"/>
+      <c r="AB37" s="0"/>
+      <c r="AC37" s="0"/>
+      <c r="AD37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="11"/>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0"/>
+      <c r="AC38" s="0"/>
+      <c r="AD38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA39" s="0"/>
+      <c r="AB39" s="0"/>
+      <c r="AC39" s="0"/>
+      <c r="AD39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA40" s="0"/>
+      <c r="AB40" s="0"/>
+      <c r="AC40" s="0"/>
+      <c r="AD40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="AA41" s="0"/>
+      <c r="AB41" s="0"/>
+      <c r="AC41" s="0"/>
+      <c r="AD41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA42" s="0"/>
+      <c r="AB42" s="0"/>
+      <c r="AC42" s="0"/>
+      <c r="AD42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA43" s="0"/>
+      <c r="AB43" s="0"/>
+      <c r="AC43" s="0"/>
+      <c r="AD43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
+      <c r="AA44" s="0"/>
+      <c r="AB44" s="0"/>
+      <c r="AC44" s="0"/>
+      <c r="AD44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
+      <c r="AA45" s="0"/>
+      <c r="AB45" s="0"/>
+      <c r="AC45" s="0"/>
+      <c r="AD45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA46" s="0"/>
+      <c r="AB46" s="0"/>
+      <c r="AC46" s="0"/>
+      <c r="AD46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA47" s="0"/>
+      <c r="AB47" s="0"/>
+      <c r="AC47" s="0"/>
+      <c r="AD47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA48" s="0"/>
+      <c r="AB48" s="0"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
+      <c r="C49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="11"/>
+      <c r="AA50" s="0"/>
+      <c r="AB50" s="0"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA51" s="0"/>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="12" t="s">
+      <c r="AA52" s="0"/>
+      <c r="AB52" s="0"/>
+      <c r="AC52" s="0"/>
+      <c r="AD52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="13" t="s">
+      <c r="C53" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
+      <c r="AA53" s="0"/>
+      <c r="AB53" s="0"/>
+      <c r="AC53" s="0"/>
+      <c r="AD53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="11"/>
+      <c r="AA54" s="0"/>
+      <c r="AB54" s="0"/>
+      <c r="AC54" s="0"/>
+      <c r="AD54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA55" s="0"/>
+      <c r="AB55" s="0"/>
+      <c r="AC55" s="0"/>
+      <c r="AD55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA56" s="0"/>
+      <c r="AB56" s="0"/>
+      <c r="AC56" s="0"/>
+      <c r="AD56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B57" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
+      <c r="AA57" s="0"/>
+      <c r="AB57" s="0"/>
+      <c r="AC57" s="0"/>
+      <c r="AD57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA58" s="0"/>
+      <c r="AB58" s="0"/>
+      <c r="AC58" s="0"/>
+      <c r="AD58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA59" s="0"/>
+      <c r="AB59" s="0"/>
+      <c r="AC59" s="0"/>
+      <c r="AD59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA60" s="0"/>
+      <c r="AB60" s="0"/>
+      <c r="AC60" s="0"/>
+      <c r="AD60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
+      <c r="B61" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA61" s="0"/>
+      <c r="AB61" s="0"/>
+      <c r="AC61" s="0"/>
+      <c r="AD61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA62" s="0"/>
+      <c r="AB62" s="0"/>
+      <c r="AC62" s="0"/>
+      <c r="AD62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="11"/>
+      <c r="AA63" s="0"/>
+      <c r="AB63" s="0"/>
+      <c r="AC63" s="0"/>
+      <c r="AD63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA64" s="0"/>
+      <c r="AB64" s="0"/>
+      <c r="AC64" s="0"/>
+      <c r="AD64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA65" s="0"/>
+      <c r="AB65" s="0"/>
+      <c r="AC65" s="0"/>
+      <c r="AD65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA66" s="0"/>
+      <c r="AB66" s="0"/>
+      <c r="AC66" s="0"/>
+      <c r="AD66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="11"/>
+      <c r="AA67" s="0"/>
+      <c r="AB67" s="0"/>
+      <c r="AC67" s="0"/>
+      <c r="AD67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA68" s="0"/>
+      <c r="AB68" s="0"/>
+      <c r="AC68" s="0"/>
+      <c r="AD68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA69" s="0"/>
+      <c r="AB69" s="0"/>
+      <c r="AC69" s="0"/>
+      <c r="AD69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA70" s="0"/>
+      <c r="AB70" s="0"/>
+      <c r="AC70" s="0"/>
+      <c r="AD70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA71" s="0"/>
+      <c r="AB71" s="0"/>
+      <c r="AC71" s="0"/>
+      <c r="AD71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="11"/>
+      <c r="AA72" s="0"/>
+      <c r="AB72" s="0"/>
+      <c r="AC72" s="0"/>
+      <c r="AD72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA73" s="0"/>
+      <c r="AB73" s="0"/>
+      <c r="AC73" s="0"/>
+      <c r="AD73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA74" s="0"/>
+      <c r="AB74" s="0"/>
+      <c r="AC74" s="0"/>
+      <c r="AD74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA75" s="0"/>
+      <c r="AB75" s="0"/>
+      <c r="AC75" s="0"/>
+      <c r="AD75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA76" s="0"/>
+      <c r="AB76" s="0"/>
+      <c r="AC76" s="0"/>
+      <c r="AD76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="11"/>
+      <c r="AA77" s="0"/>
+      <c r="AB77" s="0"/>
+      <c r="AC77" s="0"/>
+      <c r="AD77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA78" s="0"/>
+      <c r="AB78" s="0"/>
+      <c r="AC78" s="0"/>
+      <c r="AD78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA79" s="0"/>
+      <c r="AB79" s="0"/>
+      <c r="AC79" s="0"/>
+      <c r="AD79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA80" s="0"/>
+      <c r="AB80" s="0"/>
+      <c r="AC80" s="0"/>
+      <c r="AD80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA81" s="0"/>
+      <c r="AB81" s="0"/>
+      <c r="AC81" s="0"/>
+      <c r="AD81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="11"/>
+      <c r="AA82" s="0"/>
+      <c r="AB82" s="0"/>
+      <c r="AC82" s="0"/>
+      <c r="AD82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA83" s="0"/>
+      <c r="AB83" s="0"/>
+      <c r="AC83" s="0"/>
+      <c r="AD83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA84" s="0"/>
+      <c r="AB84" s="0"/>
+      <c r="AC84" s="0"/>
+      <c r="AD84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA85" s="0"/>
+      <c r="AB85" s="0"/>
+      <c r="AC85" s="0"/>
+      <c r="AD85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA86" s="0"/>
+      <c r="AB86" s="0"/>
+      <c r="AC86" s="0"/>
+      <c r="AD86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA87" s="0"/>
+      <c r="AB87" s="0"/>
+      <c r="AC87" s="0"/>
+      <c r="AD87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA88" s="0"/>
+      <c r="AB88" s="0"/>
+      <c r="AC88" s="0"/>
+      <c r="AD88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA89" s="0"/>
+      <c r="AB89" s="0"/>
+      <c r="AC89" s="0"/>
+      <c r="AD89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="11"/>
+      <c r="AA90" s="0"/>
+      <c r="AB90" s="0"/>
+      <c r="AC90" s="0"/>
+      <c r="AD90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA91" s="0"/>
+      <c r="AB91" s="0"/>
+      <c r="AC91" s="0"/>
+      <c r="AD91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA92" s="0"/>
+      <c r="AB92" s="0"/>
+      <c r="AC92" s="0"/>
+      <c r="AD92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA93" s="0"/>
+      <c r="AB93" s="0"/>
+      <c r="AC93" s="0"/>
+      <c r="AD93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="11"/>
+      <c r="AA94" s="0"/>
+      <c r="AB94" s="0"/>
+      <c r="AC94" s="0"/>
+      <c r="AD94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA95" s="0"/>
+      <c r="AB95" s="0"/>
+      <c r="AC95" s="0"/>
+      <c r="AD95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA96" s="0"/>
+      <c r="AB96" s="0"/>
+      <c r="AC96" s="0"/>
+      <c r="AD96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA97" s="0"/>
+      <c r="AB97" s="0"/>
+      <c r="AC97" s="0"/>
+      <c r="AD97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="11"/>
+      <c r="AA98" s="0"/>
+      <c r="AB98" s="0"/>
+      <c r="AC98" s="0"/>
+      <c r="AD98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA99" s="0"/>
+      <c r="AB99" s="0"/>
+      <c r="AC99" s="0"/>
+      <c r="AD99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA100" s="0"/>
+      <c r="AB100" s="0"/>
+      <c r="AC100" s="0"/>
+      <c r="AD100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA101" s="0"/>
+      <c r="AB101" s="0"/>
+      <c r="AC101" s="0"/>
+      <c r="AD101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA102" s="0"/>
+      <c r="AB102" s="0"/>
+      <c r="AC102" s="0"/>
+      <c r="AD102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="11"/>
+      <c r="AA103" s="0"/>
+      <c r="AB103" s="0"/>
+      <c r="AC103" s="0"/>
+      <c r="AD103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA104" s="0"/>
+      <c r="AB104" s="0"/>
+      <c r="AC104" s="0"/>
+      <c r="AD104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA105" s="0"/>
+      <c r="AB105" s="0"/>
+      <c r="AC105" s="0"/>
+      <c r="AD105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA106" s="0"/>
+      <c r="AB106" s="0"/>
+      <c r="AC106" s="0"/>
+      <c r="AD106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA107" s="0"/>
+      <c r="AB107" s="0"/>
+      <c r="AC107" s="0"/>
+      <c r="AD107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA108" s="0"/>
+      <c r="AB108" s="0"/>
+      <c r="AC108" s="0"/>
+      <c r="AD108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
+      <c r="AA109" s="0"/>
+      <c r="AB109" s="0"/>
+      <c r="AC109" s="0"/>
+      <c r="AD109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
+      <c r="B110" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA110" s="0"/>
+      <c r="AB110" s="0"/>
+      <c r="AC110" s="0"/>
+      <c r="AD110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA111" s="0"/>
+      <c r="AB111" s="0"/>
+      <c r="AC111" s="0"/>
+      <c r="AD111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="11"/>
+      <c r="AA112" s="0"/>
+      <c r="AB112" s="0"/>
+      <c r="AC112" s="0"/>
+      <c r="AD112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA113" s="0"/>
+      <c r="AB113" s="0"/>
+      <c r="AC113" s="0"/>
+      <c r="AD113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA114" s="0"/>
+      <c r="AB114" s="0"/>
+      <c r="AC114" s="0"/>
+      <c r="AD114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+      <c r="B115" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA115" s="0"/>
+      <c r="AB115" s="0"/>
+      <c r="AC115" s="0"/>
+      <c r="AD115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA116" s="0"/>
+      <c r="AB116" s="0"/>
+      <c r="AC116" s="0"/>
+      <c r="AD116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="11"/>
+      <c r="AA117" s="0"/>
+      <c r="AB117" s="0"/>
+      <c r="AC117" s="0"/>
+      <c r="AD117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA118" s="0"/>
+      <c r="AB118" s="0"/>
+      <c r="AC118" s="0"/>
+      <c r="AD118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA119" s="0"/>
+      <c r="AB119" s="0"/>
+      <c r="AC119" s="0"/>
+      <c r="AD119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
+      <c r="B120" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA120" s="0"/>
+      <c r="AB120" s="0"/>
+      <c r="AC120" s="0"/>
+      <c r="AD120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA121" s="0"/>
+      <c r="AB121" s="0"/>
+      <c r="AC121" s="0"/>
+      <c r="AD121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="11"/>
+      <c r="AA122" s="0"/>
+      <c r="AB122" s="0"/>
+      <c r="AC122" s="0"/>
+      <c r="AD122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA123" s="0"/>
+      <c r="AB123" s="0"/>
+      <c r="AC123" s="0"/>
+      <c r="AD123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA124" s="0"/>
+      <c r="AB124" s="0"/>
+      <c r="AC124" s="0"/>
+      <c r="AD124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA125" s="0"/>
+      <c r="AB125" s="0"/>
+      <c r="AC125" s="0"/>
+      <c r="AD125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA126" s="0"/>
+      <c r="AB126" s="0"/>
+      <c r="AC126" s="0"/>
+      <c r="AD126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA127" s="0"/>
+      <c r="AB127" s="0"/>
+      <c r="AC127" s="0"/>
+      <c r="AD127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA128" s="0"/>
+      <c r="AB128" s="0"/>
+      <c r="AC128" s="0"/>
+      <c r="AD128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
+      <c r="B129" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA129" s="0"/>
+      <c r="AB129" s="0"/>
+      <c r="AC129" s="0"/>
+      <c r="AD129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA130" s="0"/>
+      <c r="AB130" s="0"/>
+      <c r="AC130" s="0"/>
+      <c r="AD130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="11"/>
+      <c r="AA131" s="0"/>
+      <c r="AB131" s="0"/>
+      <c r="AC131" s="0"/>
+      <c r="AD131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA132" s="0"/>
+      <c r="AB132" s="0"/>
+      <c r="AC132" s="0"/>
+      <c r="AD132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA133" s="0"/>
+      <c r="AB133" s="0"/>
+      <c r="AC133" s="0"/>
+      <c r="AD133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA134" s="0"/>
+      <c r="AB134" s="0"/>
+      <c r="AC134" s="0"/>
+      <c r="AD134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA135" s="0"/>
+      <c r="AB135" s="0"/>
+      <c r="AC135" s="0"/>
+      <c r="AD135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="15"/>
+      <c r="AA136" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB136" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC136" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD136" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
+      <c r="B139" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="143" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="178" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="11"/>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="B120" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:30" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="B134" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-      <c r="AA135" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB135" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC135" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD135" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30" ht="24" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
+      <c r="B148" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B25:B27" type="list">
       <formula1>AA25:AL25</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AC33</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B34" type="list">
+      <formula1>AA34:AC34</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B38" type="decimal">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B54" type="whole">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B90" type="decimal">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B94" type="decimal">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B98" type="decimal">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AD135</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B136" type="list">
+      <formula1>AA136:AD136</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B145" type="list">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="150.714285714286"/>
+    <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="6" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+        <v>189</v>
+      </c>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+        <v>190</v>
+      </c>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+        <v>193</v>
+      </c>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+        <v>196</v>
+      </c>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+        <v>198</v>
+      </c>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+        <v>199</v>
+      </c>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
+      <c r="AD15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+        <v>189</v>
+      </c>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+        <v>202</v>
+      </c>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+        <v>207</v>
+      </c>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AD21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
+        <v>215</v>
+      </c>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+        <v>217</v>
+      </c>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+        <v>222</v>
+      </c>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="11" t="n">
+        <v>7200</v>
+      </c>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+        <v>226</v>
+      </c>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+        <v>228</v>
+      </c>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="11" t="n">
+        <v>7200</v>
+      </c>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA36" s="0"/>
+      <c r="AB36" s="0"/>
+      <c r="AC36" s="0"/>
+      <c r="AD36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+        <v>230</v>
+      </c>
+      <c r="AA37" s="0"/>
+      <c r="AB37" s="0"/>
+      <c r="AC37" s="0"/>
+      <c r="AD37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+        <v>232</v>
+      </c>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0"/>
+      <c r="AC38" s="0"/>
+      <c r="AD38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA39" s="0"/>
+      <c r="AB39" s="0"/>
+      <c r="AC39" s="0"/>
+      <c r="AD39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="AA40" s="0"/>
+      <c r="AB40" s="0"/>
+      <c r="AC40" s="0"/>
+      <c r="AD40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA41" s="0"/>
+      <c r="AB41" s="0"/>
+      <c r="AC41" s="0"/>
+      <c r="AD41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA42" s="0"/>
+      <c r="AB42" s="0"/>
+      <c r="AC42" s="0"/>
+      <c r="AD42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+        <v>234</v>
+      </c>
+      <c r="AA43" s="0"/>
+      <c r="AB43" s="0"/>
+      <c r="AC43" s="0"/>
+      <c r="AD43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
+        <v>235</v>
+      </c>
+      <c r="AA44" s="0"/>
+      <c r="AB44" s="0"/>
+      <c r="AC44" s="0"/>
+      <c r="AD44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA45" s="0"/>
+      <c r="AB45" s="0"/>
+      <c r="AC45" s="0"/>
+      <c r="AD45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+        <v>237</v>
+      </c>
+      <c r="AA46" s="0"/>
+      <c r="AB46" s="0"/>
+      <c r="AC46" s="0"/>
+      <c r="AD46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+        <v>239</v>
+      </c>
+      <c r="AA47" s="0"/>
+      <c r="AB47" s="0"/>
+      <c r="AC47" s="0"/>
+      <c r="AD47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="AA48" s="0"/>
+      <c r="AB48" s="0"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="11"/>
       <c r="AA49" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="11"/>
     </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="11"/>
     </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
+    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>267</v>
+      <c r="B83" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="11"/>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
+    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="11"/>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
+    <row r="104" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B19" type="list">
       <formula1>AA19:AD19</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B23" type="list">
       <formula1>AA23:AD23</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B27" type="list">
       <formula1>AA27:AD27</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B31" type="whole">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B35" type="whole">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B49" type="list">
       <formula1>AA49:AD49</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B53" type="whole">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B66" type="list">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B70" type="whole">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B93" type="list">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B97" type="whole">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="150.714285714286"/>
+    <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="6" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="24" customHeight="1">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="24" customHeight="1">
+        <v>293</v>
+      </c>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="24" customHeight="1">
+        <v>294</v>
+      </c>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="24" customHeight="1">
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="24" customHeight="1">
+        <v>297</v>
+      </c>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:30" ht="24" customHeight="1">
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="24" customHeight="1">
+        <v>300</v>
+      </c>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:30" ht="24" customHeight="1">
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="24" customHeight="1">
+        <v>302</v>
+      </c>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+      <c r="AF13" s="0"/>
+      <c r="AG13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
+        <v>304</v>
+      </c>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AF14" s="0"/>
+      <c r="AG14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="0"/>
+      <c r="AF15" s="0"/>
+      <c r="AG15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+      <c r="AE16" s="0"/>
+      <c r="AF16" s="0"/>
+      <c r="AG16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="24" customHeight="1">
+        <v>309</v>
+      </c>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="0"/>
+      <c r="AG17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="24" customHeight="1">
+        <v>311</v>
+      </c>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+      <c r="AE18" s="0"/>
+      <c r="AF18" s="0"/>
+      <c r="AG18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="0"/>
+      <c r="AF19" s="0"/>
+      <c r="AG19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+      <c r="AE20" s="0"/>
+      <c r="AF20" s="0"/>
+      <c r="AG20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="24" customHeight="1">
+        <v>313</v>
+      </c>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AD21" s="0"/>
+      <c r="AE21" s="0"/>
+      <c r="AF21" s="0"/>
+      <c r="AG21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="24" customHeight="1">
+        <v>315</v>
+      </c>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" s="0"/>
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
+      <c r="AF23" s="0"/>
+      <c r="AG23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="24" customHeight="1">
+        <v>319</v>
+      </c>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" s="0"/>
+      <c r="AF25" s="0"/>
+      <c r="AG25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="24" customHeight="1">
+        <v>321</v>
+      </c>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+      <c r="AE26" s="0"/>
+      <c r="AF26" s="0"/>
+      <c r="AG26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>322</v>
+      </c>
       <c r="AA28" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AD28" s="0"/>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="0"/>
+      <c r="AG28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+      <c r="AE29" s="0"/>
+      <c r="AF29" s="0"/>
+      <c r="AG29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="24" customHeight="1">
+        <v>326</v>
+      </c>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AF30" s="0"/>
+      <c r="AG30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AF31" s="0"/>
+      <c r="AG31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="AA32" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B15" type="list">
       <formula1>AA15:AD15</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B19" type="list">
       <formula1>AA19:AD19</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B23" type="list">
       <formula1>AA23:AC23</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B28" type="list">
       <formula1>AA28:AC28</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32" type="list">
       <formula1>AA32:AG32</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="150.714285714286"/>
+    <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="6" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+        <v>336</v>
+      </c>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+        <v>337</v>
+      </c>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+        <v>340</v>
+      </c>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+        <v>343</v>
+      </c>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+        <v>345</v>
+      </c>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="24" customHeight="1">
+        <v>346</v>
+      </c>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
+      <c r="AD15" s="0"/>
+      <c r="AE15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+      <c r="AE16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
+        <v>348</v>
+      </c>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
+        <v>350</v>
+      </c>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+      <c r="AE18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
+        <v>356</v>
+      </c>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AD21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
+        <v>358</v>
+      </c>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AD23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="24" customHeight="1">
+        <v>362</v>
+      </c>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
+        <v>364</v>
+      </c>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
+        <v>369</v>
+      </c>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
+        <v>371</v>
+      </c>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+        <v>376</v>
+      </c>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>371</v>
+        <v>87</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>377</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+        <v>378</v>
+      </c>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA36" s="0"/>
+      <c r="AB36" s="0"/>
+      <c r="AC36" s="0"/>
+      <c r="AD36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+        <v>380</v>
+      </c>
+      <c r="AA37" s="0"/>
+      <c r="AB37" s="0"/>
+      <c r="AC37" s="0"/>
+      <c r="AD37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+        <v>382</v>
+      </c>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0"/>
+      <c r="AC38" s="0"/>
+      <c r="AD38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA39" s="0"/>
+      <c r="AB39" s="0"/>
+      <c r="AC39" s="0"/>
+      <c r="AD39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="11"/>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="AA40" s="0"/>
+      <c r="AB40" s="0"/>
+      <c r="AC40" s="0"/>
+      <c r="AD40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA41" s="0"/>
+      <c r="AB41" s="0"/>
+      <c r="AC41" s="0"/>
+      <c r="AD41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+        <v>384</v>
+      </c>
+      <c r="AA42" s="0"/>
+      <c r="AB42" s="0"/>
+      <c r="AC42" s="0"/>
+      <c r="AD42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>379</v>
+      <c r="B43" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+        <v>386</v>
+      </c>
+      <c r="AA43" s="0"/>
+      <c r="AB43" s="0"/>
+      <c r="AC43" s="0"/>
+      <c r="AD43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA44" s="0"/>
+      <c r="AB44" s="0"/>
+      <c r="AC44" s="0"/>
+      <c r="AD44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="AA45" s="0"/>
+      <c r="AB45" s="0"/>
+      <c r="AC45" s="0"/>
+      <c r="AD45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA46" s="0"/>
+      <c r="AB46" s="0"/>
+      <c r="AC46" s="0"/>
+      <c r="AD46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA47" s="0"/>
+      <c r="AB47" s="0"/>
+      <c r="AC47" s="0"/>
+      <c r="AD47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="24" customHeight="1">
+        <v>388</v>
+      </c>
+      <c r="AA48" s="0"/>
+      <c r="AB48" s="0"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="24" customHeight="1">
+        <v>389</v>
+      </c>
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA50" s="0"/>
+      <c r="AB50" s="0"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1">
+        <v>391</v>
+      </c>
+      <c r="AA51" s="0"/>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="24" customHeight="1">
+        <v>393</v>
+      </c>
+      <c r="AA52" s="0"/>
+      <c r="AB52" s="0"/>
+      <c r="AC52" s="0"/>
+      <c r="AD52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA53" s="0"/>
+      <c r="AB53" s="0"/>
+      <c r="AC53" s="0"/>
+      <c r="AD53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="11"/>
-    </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1">
+      <c r="AA54" s="0"/>
+      <c r="AB54" s="0"/>
+      <c r="AC54" s="0"/>
+      <c r="AD54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA55" s="0"/>
+      <c r="AB55" s="0"/>
+      <c r="AC55" s="0"/>
+      <c r="AD55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="24" customHeight="1">
+        <v>395</v>
+      </c>
+      <c r="AA56" s="0"/>
+      <c r="AB56" s="0"/>
+      <c r="AC56" s="0"/>
+      <c r="AD56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1">
+        <v>397</v>
+      </c>
+      <c r="AA57" s="0"/>
+      <c r="AB57" s="0"/>
+      <c r="AC57" s="0"/>
+      <c r="AD57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA58" s="0"/>
+      <c r="AB58" s="0"/>
+      <c r="AC58" s="0"/>
+      <c r="AD58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="11"/>
-    </row>
-    <row r="61" spans="1:29" ht="24" customHeight="1">
+      <c r="AA59" s="0"/>
+      <c r="AB59" s="0"/>
+      <c r="AC59" s="0"/>
+      <c r="AD59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA60" s="0"/>
+      <c r="AB60" s="0"/>
+      <c r="AC60" s="0"/>
+      <c r="AD60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1">
+        <v>399</v>
+      </c>
+      <c r="AA61" s="0"/>
+      <c r="AB61" s="0"/>
+      <c r="AC61" s="0"/>
+      <c r="AD61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="24" customHeight="1">
+        <v>401</v>
+      </c>
+      <c r="AA62" s="0"/>
+      <c r="AB62" s="0"/>
+      <c r="AC62" s="0"/>
+      <c r="AD62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AD63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA64" s="0"/>
+      <c r="AB64" s="0"/>
+      <c r="AC64" s="0"/>
+      <c r="AD64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
+        <v>405</v>
+      </c>
+      <c r="AA65" s="0"/>
+      <c r="AB65" s="0"/>
+      <c r="AC65" s="0"/>
+      <c r="AD65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
+        <v>407</v>
+      </c>
+      <c r="AA66" s="0"/>
+      <c r="AB66" s="0"/>
+      <c r="AC66" s="0"/>
+      <c r="AD66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA67" s="0"/>
+      <c r="AB67" s="0"/>
+      <c r="AC67" s="0"/>
+      <c r="AD67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="11"/>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="AA68" s="0"/>
+      <c r="AB68" s="0"/>
+      <c r="AC68" s="0"/>
+      <c r="AD68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA69" s="0"/>
+      <c r="AB69" s="0"/>
+      <c r="AC69" s="0"/>
+      <c r="AD69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
+        <v>409</v>
+      </c>
+      <c r="AA70" s="0"/>
+      <c r="AB70" s="0"/>
+      <c r="AC70" s="0"/>
+      <c r="AD70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="AA71" s="0"/>
+      <c r="AB71" s="0"/>
+      <c r="AC71" s="0"/>
+      <c r="AD71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA72" s="0"/>
+      <c r="AB72" s="0"/>
+      <c r="AC72" s="0"/>
+      <c r="AD72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="11"/>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="AA73" s="0"/>
+      <c r="AB73" s="0"/>
+      <c r="AC73" s="0"/>
+      <c r="AD73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA74" s="0"/>
+      <c r="AB74" s="0"/>
+      <c r="AC74" s="0"/>
+      <c r="AD74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA75" s="0"/>
+      <c r="AB75" s="0"/>
+      <c r="AC75" s="0"/>
+      <c r="AD75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
+        <v>413</v>
+      </c>
+      <c r="AA76" s="0"/>
+      <c r="AB76" s="0"/>
+      <c r="AC76" s="0"/>
+      <c r="AD76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
+        <v>414</v>
+      </c>
+      <c r="AA77" s="0"/>
+      <c r="AB77" s="0"/>
+      <c r="AC77" s="0"/>
+      <c r="AD77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA78" s="0"/>
+      <c r="AB78" s="0"/>
+      <c r="AC78" s="0"/>
+      <c r="AD78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
+        <v>416</v>
+      </c>
+      <c r="AA79" s="0"/>
+      <c r="AB79" s="0"/>
+      <c r="AC79" s="0"/>
+      <c r="AD79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>411</v>
+        <v>181</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>417</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" ht="24" customHeight="1">
+        <v>418</v>
+      </c>
+      <c r="AA80" s="0"/>
+      <c r="AB80" s="0"/>
+      <c r="AC80" s="0"/>
+      <c r="AD80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="11"/>
-    </row>
-    <row r="83" spans="1:30" ht="24" customHeight="1">
+      <c r="AA81" s="0"/>
+      <c r="AB81" s="0"/>
+      <c r="AC81" s="0"/>
+      <c r="AD81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA82" s="0"/>
+      <c r="AB82" s="0"/>
+      <c r="AC82" s="0"/>
+      <c r="AD82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" ht="24" customHeight="1">
+        <v>420</v>
+      </c>
+      <c r="AA83" s="0"/>
+      <c r="AB83" s="0"/>
+      <c r="AC83" s="0"/>
+      <c r="AD83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" ht="24" customHeight="1">
+        <v>422</v>
+      </c>
+      <c r="AA84" s="0"/>
+      <c r="AB84" s="0"/>
+      <c r="AC84" s="0"/>
+      <c r="AD84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="11"/>
-    </row>
-    <row r="88" spans="1:30" ht="24" customHeight="1">
+      <c r="AA85" s="0"/>
+      <c r="AB85" s="0"/>
+      <c r="AC85" s="0"/>
+      <c r="AD85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA86" s="0"/>
+      <c r="AB86" s="0"/>
+      <c r="AC86" s="0"/>
+      <c r="AD86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA87" s="0"/>
+      <c r="AB87" s="0"/>
+      <c r="AC87" s="0"/>
+      <c r="AD87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" ht="24" customHeight="1">
+        <v>424</v>
+      </c>
+      <c r="AA88" s="0"/>
+      <c r="AB88" s="0"/>
+      <c r="AC88" s="0"/>
+      <c r="AD88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" ht="24" customHeight="1">
+        <v>425</v>
+      </c>
+      <c r="AA89" s="0"/>
+      <c r="AB89" s="0"/>
+      <c r="AC89" s="0"/>
+      <c r="AD89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA90" s="0"/>
+      <c r="AB90" s="0"/>
+      <c r="AC90" s="0"/>
+      <c r="AD90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" ht="24" customHeight="1">
+        <v>427</v>
+      </c>
+      <c r="AA91" s="0"/>
+      <c r="AB91" s="0"/>
+      <c r="AC91" s="0"/>
+      <c r="AD91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" ht="24" customHeight="1">
+        <v>429</v>
+      </c>
+      <c r="AA92" s="0"/>
+      <c r="AB92" s="0"/>
+      <c r="AC92" s="0"/>
+      <c r="AD92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA94" s="0"/>
+      <c r="AB94" s="0"/>
+      <c r="AC94" s="0"/>
+      <c r="AD94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" ht="24" customHeight="1">
+        <v>434</v>
+      </c>
+      <c r="AA95" s="0"/>
+      <c r="AB95" s="0"/>
+      <c r="AC95" s="0"/>
+      <c r="AD95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30" ht="24" customHeight="1">
+        <v>436</v>
+      </c>
+      <c r="AA96" s="0"/>
+      <c r="AB96" s="0"/>
+      <c r="AC96" s="0"/>
+      <c r="AD96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:30" ht="24" customHeight="1">
+      <c r="AA97" s="0"/>
+      <c r="AB97" s="0"/>
+      <c r="AC97" s="0"/>
+      <c r="AD97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA98" s="0"/>
+      <c r="AB98" s="0"/>
+      <c r="AC98" s="0"/>
+      <c r="AD98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30" ht="24" customHeight="1">
+        <v>230</v>
+      </c>
+      <c r="AA99" s="0"/>
+      <c r="AB99" s="0"/>
+      <c r="AC99" s="0"/>
+      <c r="AD99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30" ht="24" customHeight="1">
+        <v>439</v>
+      </c>
+      <c r="AA100" s="0"/>
+      <c r="AB100" s="0"/>
+      <c r="AC100" s="0"/>
+      <c r="AD100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA101" s="0"/>
+      <c r="AB101" s="0"/>
+      <c r="AC101" s="0"/>
+      <c r="AD101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="11"/>
-    </row>
-    <row r="105" spans="1:30" ht="24" customHeight="1">
+      <c r="AA102" s="0"/>
+      <c r="AB102" s="0"/>
+      <c r="AC102" s="0"/>
+      <c r="AD102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA103" s="0"/>
+      <c r="AB103" s="0"/>
+      <c r="AC103" s="0"/>
+      <c r="AD103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA104" s="0"/>
+      <c r="AB104" s="0"/>
+      <c r="AC104" s="0"/>
+      <c r="AD104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="12" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30" ht="24" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="AA105" s="0"/>
+      <c r="AB105" s="0"/>
+      <c r="AC105" s="0"/>
+      <c r="AD105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" ht="24" customHeight="1">
+        <v>442</v>
+      </c>
+      <c r="AA106" s="0"/>
+      <c r="AB106" s="0"/>
+      <c r="AC106" s="0"/>
+      <c r="AD106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA107" s="0"/>
+      <c r="AB107" s="0"/>
+      <c r="AC107" s="0"/>
+      <c r="AD107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" ht="24" customHeight="1">
+        <v>427</v>
+      </c>
+      <c r="AA108" s="0"/>
+      <c r="AB108" s="0"/>
+      <c r="AC108" s="0"/>
+      <c r="AD108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30" ht="24" customHeight="1">
+        <v>445</v>
+      </c>
+      <c r="AA109" s="0"/>
+      <c r="AB109" s="0"/>
+      <c r="AC109" s="0"/>
+      <c r="AD109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA111" s="0"/>
+      <c r="AB111" s="0"/>
+      <c r="AC111" s="0"/>
+      <c r="AD111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" ht="24" customHeight="1">
+        <v>434</v>
+      </c>
+      <c r="AA112" s="0"/>
+      <c r="AB112" s="0"/>
+      <c r="AC112" s="0"/>
+      <c r="AD112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" ht="24" customHeight="1">
+        <v>447</v>
+      </c>
+      <c r="AA113" s="0"/>
+      <c r="AB113" s="0"/>
+      <c r="AC113" s="0"/>
+      <c r="AD113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="11"/>
-    </row>
-    <row r="116" spans="1:29" ht="24" customHeight="1">
+      <c r="AA114" s="0"/>
+      <c r="AB114" s="0"/>
+      <c r="AC114" s="0"/>
+      <c r="AD114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA115" s="0"/>
+      <c r="AB115" s="0"/>
+      <c r="AC115" s="0"/>
+      <c r="AD115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" ht="24" customHeight="1">
+        <v>230</v>
+      </c>
+      <c r="AA116" s="0"/>
+      <c r="AB116" s="0"/>
+      <c r="AC116" s="0"/>
+      <c r="AD116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" ht="24" customHeight="1">
+        <v>449</v>
+      </c>
+      <c r="AA117" s="0"/>
+      <c r="AB117" s="0"/>
+      <c r="AC117" s="0"/>
+      <c r="AD117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA118" s="0"/>
+      <c r="AB118" s="0"/>
+      <c r="AC118" s="0"/>
+      <c r="AD118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="11"/>
-    </row>
-    <row r="122" spans="1:29" ht="24" customHeight="1">
+      <c r="AA119" s="0"/>
+      <c r="AB119" s="0"/>
+      <c r="AC119" s="0"/>
+      <c r="AD119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA120" s="0"/>
+      <c r="AB120" s="0"/>
+      <c r="AC120" s="0"/>
+      <c r="AD120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA121" s="0"/>
+      <c r="AB121" s="0"/>
+      <c r="AC121" s="0"/>
+      <c r="AD121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="12" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" ht="24" customHeight="1">
+        <v>451</v>
+      </c>
+      <c r="AA122" s="0"/>
+      <c r="AB122" s="0"/>
+      <c r="AC122" s="0"/>
+      <c r="AD122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" ht="24" customHeight="1">
+        <v>452</v>
+      </c>
+      <c r="AA123" s="0"/>
+      <c r="AB123" s="0"/>
+      <c r="AC123" s="0"/>
+      <c r="AD123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA124" s="0"/>
+      <c r="AB124" s="0"/>
+      <c r="AC124" s="0"/>
+      <c r="AD124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" ht="24" customHeight="1">
+        <v>454</v>
+      </c>
+      <c r="AA125" s="0"/>
+      <c r="AB125" s="0"/>
+      <c r="AC125" s="0"/>
+      <c r="AD125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" ht="24" customHeight="1">
+        <v>456</v>
+      </c>
+      <c r="AA126" s="0"/>
+      <c r="AB126" s="0"/>
+      <c r="AC126" s="0"/>
+      <c r="AD126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AD127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA128" s="0"/>
+      <c r="AB128" s="0"/>
+      <c r="AC128" s="0"/>
+      <c r="AD128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA129" s="0"/>
+      <c r="AB129" s="0"/>
+      <c r="AC129" s="0"/>
+      <c r="AD129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="12" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B130" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA130" s="0"/>
+      <c r="AB130" s="0"/>
+      <c r="AC130" s="0"/>
+      <c r="AD130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA131" s="0"/>
+      <c r="AB131" s="0"/>
+      <c r="AC131" s="0"/>
+      <c r="AD131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA132" s="0"/>
+      <c r="AB132" s="0"/>
+      <c r="AC132" s="0"/>
+      <c r="AD132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="131" spans="1:29" ht="24" customHeight="1">
-      <c r="B131" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" ht="24" customHeight="1">
+      <c r="AA133" s="0"/>
+      <c r="AB133" s="0"/>
+      <c r="AC133" s="0"/>
+      <c r="AD133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" ht="24" customHeight="1">
+        <v>464</v>
+      </c>
+      <c r="AA134" s="0"/>
+      <c r="AB134" s="0"/>
+      <c r="AC134" s="0"/>
+      <c r="AD134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AD135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA136" s="0"/>
+      <c r="AB136" s="0"/>
+      <c r="AC136" s="0"/>
+      <c r="AD136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" ht="24" customHeight="1">
+        <v>230</v>
+      </c>
+      <c r="AA137" s="0"/>
+      <c r="AB137" s="0"/>
+      <c r="AC137" s="0"/>
+      <c r="AD137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" ht="24" customHeight="1">
+        <v>468</v>
+      </c>
+      <c r="AA138" s="0"/>
+      <c r="AB138" s="0"/>
+      <c r="AC138" s="0"/>
+      <c r="AD138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA139" s="0"/>
+      <c r="AB139" s="0"/>
+      <c r="AC139" s="0"/>
+      <c r="AD139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="11"/>
-    </row>
-    <row r="143" spans="1:29" ht="24" customHeight="1">
+      <c r="AA140" s="0"/>
+      <c r="AB140" s="0"/>
+      <c r="AC140" s="0"/>
+      <c r="AD140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA141" s="0"/>
+      <c r="AB141" s="0"/>
+      <c r="AC141" s="0"/>
+      <c r="AD141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA142" s="0"/>
+      <c r="AB142" s="0"/>
+      <c r="AC142" s="0"/>
+      <c r="AD142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="12" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29" ht="24" customHeight="1">
+        <v>470</v>
+      </c>
+      <c r="AA143" s="0"/>
+      <c r="AB143" s="0"/>
+      <c r="AC143" s="0"/>
+      <c r="AD143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30" ht="24" customHeight="1">
+        <v>471</v>
+      </c>
+      <c r="AA144" s="0"/>
+      <c r="AB144" s="0"/>
+      <c r="AC144" s="0"/>
+      <c r="AD144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA145" s="0"/>
+      <c r="AB145" s="0"/>
+      <c r="AC145" s="0"/>
+      <c r="AD145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="147" spans="1:30" ht="24" customHeight="1">
+        <v>473</v>
+      </c>
+      <c r="AA146" s="0"/>
+      <c r="AB146" s="0"/>
+      <c r="AC146" s="0"/>
+      <c r="AD146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="148" spans="1:30" ht="24" customHeight="1">
+        <v>475</v>
+      </c>
+      <c r="AA147" s="0"/>
+      <c r="AB147" s="0"/>
+      <c r="AC147" s="0"/>
+      <c r="AD147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="11"/>
-    </row>
-    <row r="150" spans="1:30" ht="24" customHeight="1">
+      <c r="AA148" s="0"/>
+      <c r="AB148" s="0"/>
+      <c r="AC148" s="0"/>
+      <c r="AD148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA149" s="0"/>
+      <c r="AB149" s="0"/>
+      <c r="AC149" s="0"/>
+      <c r="AD149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="151" spans="1:30" ht="24" customHeight="1">
+        <v>477</v>
+      </c>
+      <c r="AA150" s="0"/>
+      <c r="AB150" s="0"/>
+      <c r="AC150" s="0"/>
+      <c r="AD150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="152" spans="1:30" ht="24" customHeight="1">
+        <v>479</v>
+      </c>
+      <c r="AA151" s="0"/>
+      <c r="AB151" s="0"/>
+      <c r="AC151" s="0"/>
+      <c r="AD151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="154" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="AD152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA153" s="0"/>
+      <c r="AB153" s="0"/>
+      <c r="AC153" s="0"/>
+      <c r="AD153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="155" spans="1:30" ht="24" customHeight="1">
+        <v>483</v>
+      </c>
+      <c r="AA154" s="0"/>
+      <c r="AB154" s="0"/>
+      <c r="AC154" s="0"/>
+      <c r="AD154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="156" spans="1:30" ht="24" customHeight="1">
+        <v>485</v>
+      </c>
+      <c r="AA155" s="0"/>
+      <c r="AB155" s="0"/>
+      <c r="AC155" s="0"/>
+      <c r="AD155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="157" spans="1:30" ht="24" customHeight="1">
+      <c r="AA156" s="0"/>
+      <c r="AB156" s="0"/>
+      <c r="AC156" s="0"/>
+      <c r="AD156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="160" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA158" s="0"/>
+      <c r="AB158" s="0"/>
+      <c r="AC158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA159" s="0"/>
+      <c r="AB159" s="0"/>
+      <c r="AC159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="12" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
+        <v>490</v>
+      </c>
+      <c r="AA160" s="0"/>
+      <c r="AB160" s="0"/>
+      <c r="AC160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
+        <v>491</v>
+      </c>
+      <c r="AA161" s="0"/>
+      <c r="AB161" s="0"/>
+      <c r="AC161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA162" s="0"/>
+      <c r="AB162" s="0"/>
+      <c r="AC162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
+        <v>493</v>
+      </c>
+      <c r="AA163" s="0"/>
+      <c r="AB163" s="0"/>
+      <c r="AC163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
+        <v>495</v>
+      </c>
+      <c r="AA164" s="0"/>
+      <c r="AB164" s="0"/>
+      <c r="AC164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="11"/>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
+      <c r="AA165" s="0"/>
+      <c r="AB165" s="0"/>
+      <c r="AC165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA166" s="0"/>
+      <c r="AB166" s="0"/>
+      <c r="AC166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
+        <v>497</v>
+      </c>
+      <c r="AA167" s="0"/>
+      <c r="AB167" s="0"/>
+      <c r="AC167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
+        <v>499</v>
+      </c>
+      <c r="AA168" s="0"/>
+      <c r="AB168" s="0"/>
+      <c r="AC168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA169" s="0"/>
+      <c r="AB169" s="0"/>
+      <c r="AC169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="11"/>
-    </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1">
+      <c r="AA170" s="0"/>
+      <c r="AB170" s="0"/>
+      <c r="AC170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA171" s="0"/>
+      <c r="AB171" s="0"/>
+      <c r="AC171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
+        <v>501</v>
+      </c>
+      <c r="AA172" s="0"/>
+      <c r="AB172" s="0"/>
+      <c r="AC172" s="0"/>
+    </row>
+    <row r="173" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
+        <v>503</v>
+      </c>
+      <c r="AA173" s="0"/>
+      <c r="AB173" s="0"/>
+      <c r="AC173" s="0"/>
+    </row>
+    <row r="174" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="11"/>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
+      <c r="AA174" s="0"/>
+      <c r="AB174" s="0"/>
+      <c r="AC174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA175" s="0"/>
+      <c r="AB175" s="0"/>
+      <c r="AC175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="177" spans="1:29" ht="24" customHeight="1">
+        <v>505</v>
+      </c>
+      <c r="AA176" s="0"/>
+      <c r="AB176" s="0"/>
+      <c r="AC176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" ht="24" customHeight="1">
+        <v>507</v>
+      </c>
+      <c r="AA177" s="0"/>
+      <c r="AB177" s="0"/>
+      <c r="AC177" s="0"/>
+    </row>
+    <row r="178" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA178" s="0"/>
+      <c r="AB178" s="0"/>
+      <c r="AC178" s="0"/>
+    </row>
+    <row r="179" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="11"/>
-    </row>
-    <row r="181" spans="1:29" ht="24" customHeight="1">
+      <c r="AA179" s="0"/>
+      <c r="AB179" s="0"/>
+      <c r="AC179" s="0"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA180" s="0"/>
+      <c r="AB180" s="0"/>
+      <c r="AC180" s="0"/>
+    </row>
+    <row r="181" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="182" spans="1:29" ht="24" customHeight="1">
+        <v>319</v>
+      </c>
+      <c r="AA181" s="0"/>
+      <c r="AB181" s="0"/>
+      <c r="AC181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29" ht="24" customHeight="1">
+        <v>510</v>
+      </c>
+      <c r="AA182" s="0"/>
+      <c r="AB182" s="0"/>
+      <c r="AC182" s="0"/>
+    </row>
+    <row r="183" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="11"/>
-    </row>
-    <row r="185" spans="1:29" ht="24" customHeight="1">
+      <c r="AA183" s="0"/>
+      <c r="AB183" s="0"/>
+      <c r="AC183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA184" s="0"/>
+      <c r="AB184" s="0"/>
+      <c r="AC184" s="0"/>
+    </row>
+    <row r="185" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29" ht="24" customHeight="1">
+        <v>362</v>
+      </c>
+      <c r="AA185" s="0"/>
+      <c r="AB185" s="0"/>
+      <c r="AC185" s="0"/>
+    </row>
+    <row r="186" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29" ht="24" customHeight="1">
+        <v>513</v>
+      </c>
+      <c r="AA186" s="0"/>
+      <c r="AB186" s="0"/>
+      <c r="AC186" s="0"/>
+    </row>
+    <row r="187" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B19" type="list">
       <formula1>AA19:AE19</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B23" type="list">
       <formula1>AA23:AC23</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B27" type="list">
       <formula1>AA27:AD27</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B31" type="list">
       <formula1>AA31:AD31</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B35" type="decimal">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B63" type="list">
       <formula1>AA63:AC63</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B81" type="list">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B85" type="list">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B93" type="list">
       <formula1>AA93:AD93</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B97" type="decimal">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B110" type="list">
       <formula1>AA110:AD110</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B114" type="decimal">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B127" type="list">
       <formula1>AA127:AC127</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B135" type="list">
       <formula1>AA135:AC135</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B148" type="list">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B152" type="list">
       <formula1>AA152:AC152</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B157" type="list">
       <formula1>AA157:AD157</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B165" type="list">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B174" type="list">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B187" type="list">
       <formula1>AA187:AC187</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="150.714285714286"/>
+    <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="6" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="24" customHeight="1">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="24" customHeight="1">
+        <v>517</v>
+      </c>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="24" customHeight="1">
+        <v>518</v>
+      </c>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="24" customHeight="1">
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="24" customHeight="1">
+        <v>521</v>
+      </c>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:30" ht="24" customHeight="1">
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="24" customHeight="1">
+        <v>524</v>
+      </c>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:30" ht="24" customHeight="1">
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="24" customHeight="1">
+        <v>526</v>
+      </c>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
+        <v>528</v>
+      </c>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+        <v>533</v>
+      </c>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
+        <v>535</v>
+      </c>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="0"/>
+      <c r="AC19" s="0"/>
+      <c r="AD19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B15" type="list">
       <formula1>AA15:AD15</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20" type="list">
       <formula1>AA20:AD20</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>